--- a/BackTest/2019-10-17 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-17 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>14</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>367</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>367.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>18</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L14" t="n">
         <v>367.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L15" t="n">
         <v>367.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>20</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L16" t="n">
         <v>367.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>20</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>40</v>
+      </c>
       <c r="L17" t="n">
         <v>368</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>23</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50</v>
+      </c>
       <c r="L18" t="n">
         <v>368.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>24</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L19" t="n">
         <v>369.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>25</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L20" t="n">
         <v>369.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>26</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>370.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>27</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>50</v>
+      </c>
       <c r="L22" t="n">
         <v>371</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L23" t="n">
         <v>371.7</v>
@@ -1466,7 +1488,7 @@
         <v>29</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43478260869566</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L24" t="n">
         <v>372.2</v>
@@ -1515,7 +1537,7 @@
         <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>30.43478260869566</v>
+        <v>60</v>
       </c>
       <c r="L25" t="n">
         <v>372.6</v>
@@ -1564,7 +1586,7 @@
         <v>35</v>
       </c>
       <c r="K26" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L26" t="n">
         <v>372.7</v>
@@ -1613,7 +1635,7 @@
         <v>45</v>
       </c>
       <c r="K27" t="n">
-        <v>38.88888888888889</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L27" t="n">
         <v>373.8</v>
@@ -1662,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="n">
-        <v>38.88888888888889</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L28" t="n">
         <v>374.5</v>
@@ -1711,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="K29" t="n">
-        <v>40.54054054054054</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L29" t="n">
         <v>375.5</v>
@@ -1760,7 +1782,7 @@
         <v>48</v>
       </c>
       <c r="K30" t="n">
-        <v>40.54054054054054</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L30" t="n">
         <v>376.4</v>
@@ -1809,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>43.58974358974359</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L31" t="n">
         <v>377.4</v>
@@ -1860,7 +1882,7 @@
         <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>38.88888888888889</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L32" t="n">
         <v>378.3</v>
@@ -1911,7 +1933,7 @@
         <v>56</v>
       </c>
       <c r="K33" t="n">
-        <v>21.95121951219512</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L33" t="n">
         <v>378.5</v>
@@ -1962,7 +1984,7 @@
         <v>59</v>
       </c>
       <c r="K34" t="n">
-        <v>21.95121951219512</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L34" t="n">
         <v>378.9</v>
@@ -2013,7 +2035,7 @@
         <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>23.80952380952381</v>
+        <v>44</v>
       </c>
       <c r="L35" t="n">
         <v>379.5</v>
@@ -2064,7 +2086,7 @@
         <v>61</v>
       </c>
       <c r="K36" t="n">
-        <v>26.82926829268293</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>380.5</v>
@@ -2115,7 +2137,7 @@
         <v>62</v>
       </c>
       <c r="K37" t="n">
-        <v>28.57142857142857</v>
+        <v>12.5</v>
       </c>
       <c r="L37" t="n">
         <v>380.6</v>
@@ -2166,7 +2188,7 @@
         <v>64</v>
       </c>
       <c r="K38" t="n">
-        <v>17.07317073170732</v>
+        <v>-12.5</v>
       </c>
       <c r="L38" t="n">
         <v>380.6</v>
@@ -2217,7 +2239,7 @@
         <v>64</v>
       </c>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>-12.5</v>
       </c>
       <c r="L39" t="n">
         <v>380.4</v>
@@ -2268,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="K40" t="n">
-        <v>9.523809523809524</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L40" t="n">
         <v>379.9</v>
@@ -2319,7 +2341,7 @@
         <v>69</v>
       </c>
       <c r="K41" t="n">
-        <v>2.325581395348837</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L41" t="n">
         <v>379</v>
@@ -2370,7 +2392,7 @@
         <v>71</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.545454545454546</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>377.9</v>
@@ -2421,7 +2443,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.090909090909092</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L43" t="n">
         <v>377.3</v>
@@ -2472,7 +2494,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="n">
-        <v>-9.090909090909092</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L44" t="n">
         <v>376.5</v>
@@ -2523,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>375.9</v>
@@ -2574,7 +2596,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="n">
-        <v>18.18181818181818</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L46" t="n">
         <v>375.7</v>
@@ -2625,7 +2647,7 @@
         <v>79</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L47" t="n">
         <v>375.4</v>
@@ -2676,7 +2698,7 @@
         <v>79</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.03030303030303</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L48" t="n">
         <v>375.3</v>
@@ -2727,7 +2749,7 @@
         <v>79</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.67741935483871</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>375.2</v>
@@ -2778,7 +2800,7 @@
         <v>79</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.67741935483871</v>
+        <v>40</v>
       </c>
       <c r="L50" t="n">
         <v>375.4</v>
@@ -2829,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.24137931034483</v>
+        <v>75</v>
       </c>
       <c r="L51" t="n">
         <v>375.8</v>
@@ -2880,7 +2902,7 @@
         <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>-20</v>
+        <v>75</v>
       </c>
       <c r="L52" t="n">
         <v>376.3</v>
@@ -2931,7 +2953,7 @@
         <v>83</v>
       </c>
       <c r="K53" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>376.6</v>
@@ -2982,7 +3004,7 @@
         <v>84</v>
       </c>
       <c r="K54" t="n">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="L54" t="n">
         <v>376.7</v>
@@ -3033,7 +3055,7 @@
         <v>86</v>
       </c>
       <c r="K55" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L55" t="n">
         <v>376.3</v>
@@ -3084,7 +3106,7 @@
         <v>88</v>
       </c>
       <c r="K56" t="n">
-        <v>-40.74074074074074</v>
+        <v>-100</v>
       </c>
       <c r="L56" t="n">
         <v>375.4</v>
@@ -3135,7 +3157,7 @@
         <v>91</v>
       </c>
       <c r="K57" t="n">
-        <v>-31.03448275862069</v>
+        <v>-50</v>
       </c>
       <c r="L57" t="n">
         <v>374.8</v>
@@ -3186,7 +3208,7 @@
         <v>92</v>
       </c>
       <c r="K58" t="n">
-        <v>-21.42857142857143</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L58" t="n">
         <v>374.3</v>
@@ -3237,7 +3259,7 @@
         <v>94</v>
       </c>
       <c r="K59" t="n">
-        <v>-26.66666666666667</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L59" t="n">
         <v>373.6</v>
@@ -3288,7 +3310,7 @@
         <v>94</v>
       </c>
       <c r="K60" t="n">
-        <v>-18.51851851851852</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L60" t="n">
         <v>372.9</v>
@@ -3339,7 +3361,7 @@
         <v>96</v>
       </c>
       <c r="K61" t="n">
-        <v>-18.51851851851852</v>
+        <v>-50</v>
       </c>
       <c r="L61" t="n">
         <v>372</v>
@@ -3390,7 +3412,7 @@
         <v>97</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.692307692307693</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>371.3</v>
@@ -3441,7 +3463,7 @@
         <v>98</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>371</v>
@@ -3492,7 +3514,7 @@
         <v>98</v>
       </c>
       <c r="K64" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>370.8</v>
@@ -3543,7 +3565,7 @@
         <v>99</v>
       </c>
       <c r="K65" t="n">
-        <v>-13.04347826086956</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L65" t="n">
         <v>370.9</v>
@@ -3594,7 +3616,7 @@
         <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>-23.80952380952381</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L66" t="n">
         <v>371.3</v>
@@ -3645,7 +3667,7 @@
         <v>103</v>
       </c>
       <c r="K67" t="n">
-        <v>-8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L67" t="n">
         <v>371.7</v>
@@ -3696,7 +3718,7 @@
         <v>103</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.333333333333332</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L68" t="n">
         <v>372</v>
@@ -3747,7 +3769,7 @@
         <v>103</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.333333333333332</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L69" t="n">
         <v>372.5</v>
@@ -3798,7 +3820,7 @@
         <v>103</v>
       </c>
       <c r="K70" t="n">
-        <v>-8.333333333333332</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>373</v>
@@ -3849,7 +3871,7 @@
         <v>104</v>
       </c>
       <c r="K71" t="n">
-        <v>-12</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L71" t="n">
         <v>373.6</v>
@@ -3900,7 +3922,7 @@
         <v>104</v>
       </c>
       <c r="K72" t="n">
-        <v>-8.333333333333332</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>374.1</v>
@@ -3951,7 +3973,7 @@
         <v>104</v>
       </c>
       <c r="K73" t="n">
-        <v>4.761904761904762</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L73" t="n">
         <v>374.5</v>
@@ -4002,7 +4024,7 @@
         <v>107</v>
       </c>
       <c r="K74" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>374.6</v>
@@ -4053,7 +4075,7 @@
         <v>108</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L75" t="n">
         <v>374.5</v>
@@ -4104,7 +4126,7 @@
         <v>108</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>374.3</v>
@@ -4155,7 +4177,7 @@
         <v>110</v>
       </c>
       <c r="K77" t="n">
-        <v>-15.78947368421053</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>373.6</v>
@@ -4206,7 +4228,7 @@
         <v>110</v>
       </c>
       <c r="K78" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>372.9</v>
@@ -4257,7 +4279,7 @@
         <v>111</v>
       </c>
       <c r="K79" t="n">
-        <v>-17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>372.1</v>
@@ -4308,7 +4330,7 @@
         <v>112</v>
       </c>
       <c r="K80" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>371.2</v>
@@ -4359,7 +4381,7 @@
         <v>112</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L81" t="n">
         <v>370.4</v>
@@ -4410,7 +4432,7 @@
         <v>112</v>
       </c>
       <c r="K82" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L82" t="n">
         <v>369.6</v>
@@ -4461,7 +4483,7 @@
         <v>112</v>
       </c>
       <c r="K83" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L83" t="n">
         <v>368.8</v>
@@ -4512,7 +4534,7 @@
         <v>112</v>
       </c>
       <c r="K84" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>368.3</v>
@@ -4563,7 +4585,7 @@
         <v>112</v>
       </c>
       <c r="K85" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L85" t="n">
         <v>367.9</v>
@@ -4614,7 +4636,7 @@
         <v>115</v>
       </c>
       <c r="K86" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>367.2</v>
@@ -4767,7 +4789,7 @@
         <v>122</v>
       </c>
       <c r="K89" t="n">
-        <v>-57.89473684210527</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>365.6</v>
@@ -4818,7 +4840,7 @@
         <v>124</v>
       </c>
       <c r="K90" t="n">
-        <v>-61.90476190476191</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>365.2</v>
@@ -4869,7 +4891,7 @@
         <v>124</v>
       </c>
       <c r="K91" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>364.8</v>
@@ -4920,7 +4942,7 @@
         <v>125</v>
       </c>
       <c r="K92" t="n">
-        <v>-61.90476190476191</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L92" t="n">
         <v>364.3</v>
@@ -4971,7 +4993,7 @@
         <v>126</v>
       </c>
       <c r="K93" t="n">
-        <v>-54.54545454545454</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>363.9</v>
@@ -5022,7 +5044,7 @@
         <v>126</v>
       </c>
       <c r="K94" t="n">
-        <v>-47.36842105263158</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>363.5</v>
@@ -5073,7 +5095,7 @@
         <v>129</v>
       </c>
       <c r="K95" t="n">
-        <v>-23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>363.4</v>
@@ -5124,7 +5146,7 @@
         <v>130</v>
       </c>
       <c r="K96" t="n">
-        <v>-27.27272727272727</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L96" t="n">
         <v>363.5</v>
@@ -5175,7 +5197,7 @@
         <v>132</v>
       </c>
       <c r="K97" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>363.4</v>
@@ -5226,7 +5248,7 @@
         <v>135</v>
       </c>
       <c r="K98" t="n">
-        <v>-12</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L98" t="n">
         <v>363.9</v>
@@ -5277,7 +5299,7 @@
         <v>136</v>
       </c>
       <c r="K99" t="n">
-        <v>-12</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L99" t="n">
         <v>363.9</v>
@@ -5328,7 +5350,7 @@
         <v>138</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>364.3</v>
@@ -5379,7 +5401,7 @@
         <v>140</v>
       </c>
       <c r="K101" t="n">
-        <v>-7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>364.5</v>
@@ -5430,7 +5452,7 @@
         <v>140</v>
       </c>
       <c r="K102" t="n">
-        <v>-7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>364.8</v>
@@ -5481,7 +5503,7 @@
         <v>141</v>
       </c>
       <c r="K103" t="n">
-        <v>-10.3448275862069</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L103" t="n">
         <v>364.9</v>
@@ -5532,7 +5554,7 @@
         <v>141</v>
       </c>
       <c r="K104" t="n">
-        <v>-10.3448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L104" t="n">
         <v>365</v>
@@ -5583,7 +5605,7 @@
         <v>141</v>
       </c>
       <c r="K105" t="n">
-        <v>-10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L105" t="n">
         <v>364.8</v>
@@ -5634,7 +5656,7 @@
         <v>142</v>
       </c>
       <c r="K106" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>364.6</v>
@@ -5685,7 +5707,7 @@
         <v>144</v>
       </c>
       <c r="K107" t="n">
-        <v>3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L107" t="n">
         <v>364.8</v>
@@ -5736,7 +5758,7 @@
         <v>144</v>
       </c>
       <c r="K108" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>364.7</v>
@@ -5787,7 +5809,7 @@
         <v>145</v>
       </c>
       <c r="K109" t="n">
-        <v>-4.347826086956522</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L109" t="n">
         <v>364.6</v>
@@ -5838,7 +5860,7 @@
         <v>146</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>364.4</v>
@@ -5889,7 +5911,7 @@
         <v>146</v>
       </c>
       <c r="K111" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>364.4</v>
@@ -5940,7 +5962,7 @@
         <v>146</v>
       </c>
       <c r="K112" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L112" t="n">
         <v>364.4</v>
@@ -5991,7 +6013,7 @@
         <v>147</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>364.6</v>
@@ -6042,7 +6064,7 @@
         <v>147</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>364.8</v>
@@ -6093,7 +6115,7 @@
         <v>148</v>
       </c>
       <c r="K115" t="n">
-        <v>5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L115" t="n">
         <v>365.1</v>
@@ -6144,7 +6166,7 @@
         <v>148</v>
       </c>
       <c r="K116" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>365.5</v>
@@ -6195,7 +6217,7 @@
         <v>149</v>
       </c>
       <c r="K117" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>365.6</v>
@@ -6246,7 +6268,7 @@
         <v>151</v>
       </c>
       <c r="K118" t="n">
-        <v>12.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L118" t="n">
         <v>365.9</v>
@@ -6297,7 +6319,7 @@
         <v>152</v>
       </c>
       <c r="K119" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>366.2</v>
@@ -6348,7 +6370,7 @@
         <v>154</v>
       </c>
       <c r="K120" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>366.2</v>
@@ -6450,7 +6472,7 @@
         <v>155</v>
       </c>
       <c r="K122" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>366.3</v>
@@ -6501,7 +6523,7 @@
         <v>155</v>
       </c>
       <c r="K123" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>366.3</v>
@@ -6552,7 +6574,7 @@
         <v>155</v>
       </c>
       <c r="K124" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>366.3</v>
@@ -6603,7 +6625,7 @@
         <v>155</v>
       </c>
       <c r="K125" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>366.2</v>
@@ -6654,7 +6676,7 @@
         <v>155</v>
       </c>
       <c r="K126" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>366.1</v>
@@ -6705,7 +6727,7 @@
         <v>155</v>
       </c>
       <c r="K127" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L127" t="n">
         <v>366.1</v>
@@ -6756,7 +6778,7 @@
         <v>155</v>
       </c>
       <c r="K128" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>365.9</v>
@@ -6807,7 +6829,7 @@
         <v>155</v>
       </c>
       <c r="K129" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>365.8</v>
@@ -6858,7 +6880,7 @@
         <v>155</v>
       </c>
       <c r="K130" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>365.9</v>
@@ -6908,9 +6930,7 @@
       <c r="J131" t="n">
         <v>155</v>
       </c>
-      <c r="K131" t="n">
-        <v>11.11111111111111</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>366</v>
       </c>
@@ -6959,9 +6979,7 @@
       <c r="J132" t="n">
         <v>155</v>
       </c>
-      <c r="K132" t="n">
-        <v>11.11111111111111</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>366</v>
       </c>
@@ -7010,9 +7028,7 @@
       <c r="J133" t="n">
         <v>155</v>
       </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>366</v>
       </c>
@@ -7062,7 +7078,7 @@
         <v>156</v>
       </c>
       <c r="K134" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>366.1</v>
@@ -7113,7 +7129,7 @@
         <v>157</v>
       </c>
       <c r="K135" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>366.3</v>
@@ -7164,7 +7180,7 @@
         <v>158</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>366.4</v>
@@ -7215,7 +7231,7 @@
         <v>158</v>
       </c>
       <c r="K137" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>366.5</v>
@@ -7266,7 +7282,7 @@
         <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L138" t="n">
         <v>366.8</v>
@@ -7317,7 +7333,7 @@
         <v>161</v>
       </c>
       <c r="K139" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L139" t="n">
         <v>367.2</v>
@@ -7368,7 +7384,7 @@
         <v>161</v>
       </c>
       <c r="K140" t="n">
-        <v>71.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L140" t="n">
         <v>367.6</v>
@@ -7419,7 +7435,7 @@
         <v>162</v>
       </c>
       <c r="K141" t="n">
-        <v>75</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L141" t="n">
         <v>368.1</v>
@@ -7521,7 +7537,7 @@
         <v>163</v>
       </c>
       <c r="K143" t="n">
-        <v>75</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>369.2</v>
@@ -7572,7 +7588,7 @@
         <v>164</v>
       </c>
       <c r="K144" t="n">
-        <v>77.77777777777779</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L144" t="n">
         <v>369.8</v>
@@ -7623,7 +7639,7 @@
         <v>164</v>
       </c>
       <c r="K145" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>370.3</v>
@@ -7674,7 +7690,7 @@
         <v>166</v>
       </c>
       <c r="K146" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L146" t="n">
         <v>370.7</v>
@@ -7725,7 +7741,7 @@
         <v>169</v>
       </c>
       <c r="K147" t="n">
-        <v>57.14285714285714</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L147" t="n">
         <v>371.4</v>
@@ -7776,7 +7792,7 @@
         <v>170</v>
       </c>
       <c r="K148" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>371.8</v>
@@ -7827,7 +7843,7 @@
         <v>170</v>
       </c>
       <c r="K149" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>372.1</v>
@@ -7878,7 +7894,7 @@
         <v>171</v>
       </c>
       <c r="K150" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>372.5</v>
@@ -7929,7 +7945,7 @@
         <v>172</v>
       </c>
       <c r="K151" t="n">
-        <v>41.17647058823529</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>372.7</v>
@@ -7980,7 +7996,7 @@
         <v>173</v>
       </c>
       <c r="K152" t="n">
-        <v>44.44444444444444</v>
+        <v>20</v>
       </c>
       <c r="L152" t="n">
         <v>373</v>
@@ -8031,7 +8047,7 @@
         <v>174</v>
       </c>
       <c r="K153" t="n">
-        <v>47.36842105263158</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
         <v>373.3</v>
@@ -8082,7 +8098,7 @@
         <v>175</v>
       </c>
       <c r="K154" t="n">
-        <v>36.84210526315789</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L154" t="n">
         <v>373.4</v>
@@ -8184,7 +8200,7 @@
         <v>175</v>
       </c>
       <c r="K156" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>373.8</v>
@@ -8235,7 +8251,7 @@
         <v>176</v>
       </c>
       <c r="K157" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>373.7</v>
@@ -8286,7 +8302,7 @@
         <v>180</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L158" t="n">
         <v>373.3</v>
@@ -8337,7 +8353,7 @@
         <v>184</v>
       </c>
       <c r="K159" t="n">
-        <v>-21.73913043478261</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L159" t="n">
         <v>372.5</v>
@@ -8388,7 +8404,7 @@
         <v>184</v>
       </c>
       <c r="K160" t="n">
-        <v>-21.73913043478261</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L160" t="n">
         <v>371.6</v>
@@ -8439,7 +8455,7 @@
         <v>185</v>
       </c>
       <c r="K161" t="n">
-        <v>-30.43478260869566</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L161" t="n">
         <v>370.7</v>
@@ -8490,7 +8506,7 @@
         <v>186</v>
       </c>
       <c r="K162" t="n">
-        <v>-25</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L162" t="n">
         <v>369.8</v>
@@ -8541,7 +8557,7 @@
         <v>187</v>
       </c>
       <c r="K163" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L163" t="n">
         <v>368.9</v>
@@ -8592,7 +8608,7 @@
         <v>188</v>
       </c>
       <c r="K164" t="n">
-        <v>-33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L164" t="n">
         <v>368</v>
@@ -8643,7 +8659,7 @@
         <v>189</v>
       </c>
       <c r="K165" t="n">
-        <v>-36</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L165" t="n">
         <v>367</v>
@@ -8694,7 +8710,7 @@
         <v>190</v>
       </c>
       <c r="K166" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L166" t="n">
         <v>365.9</v>
@@ -8796,7 +8812,7 @@
         <v>193</v>
       </c>
       <c r="K168" t="n">
-        <v>-47.82608695652174</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>364.3</v>
@@ -8847,7 +8863,7 @@
         <v>194</v>
       </c>
       <c r="K169" t="n">
-        <v>-41.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L169" t="n">
         <v>364.1</v>
@@ -8898,7 +8914,7 @@
         <v>194</v>
       </c>
       <c r="K170" t="n">
-        <v>-47.82608695652174</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L170" t="n">
         <v>363.9</v>
@@ -8949,7 +8965,7 @@
         <v>194</v>
       </c>
       <c r="K171" t="n">
-        <v>-45.45454545454545</v>
+        <v>-25</v>
       </c>
       <c r="L171" t="n">
         <v>363.8</v>
@@ -9000,7 +9016,7 @@
         <v>199</v>
       </c>
       <c r="K172" t="n">
-        <v>-23.07692307692308</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>364.1</v>
@@ -9051,7 +9067,7 @@
         <v>203</v>
       </c>
       <c r="K173" t="n">
-        <v>-10.3448275862069</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L173" t="n">
         <v>364.7</v>
@@ -9102,7 +9118,7 @@
         <v>205</v>
       </c>
       <c r="K174" t="n">
-        <v>-13.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="L174" t="n">
         <v>365.2</v>
@@ -9153,7 +9169,7 @@
         <v>207</v>
       </c>
       <c r="K175" t="n">
-        <v>-6.25</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L175" t="n">
         <v>366</v>
@@ -9204,7 +9220,7 @@
         <v>208</v>
       </c>
       <c r="K176" t="n">
-        <v>-3.03030303030303</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L176" t="n">
         <v>367</v>
@@ -9255,7 +9271,7 @@
         <v>210</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.88235294117647</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L177" t="n">
         <v>367.7</v>
@@ -9306,7 +9322,7 @@
         <v>213</v>
       </c>
       <c r="K178" t="n">
-        <v>-3.03030303030303</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L178" t="n">
         <v>368.3</v>
@@ -9357,7 +9373,7 @@
         <v>215</v>
       </c>
       <c r="K179" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>369</v>
@@ -9408,7 +9424,7 @@
         <v>215</v>
       </c>
       <c r="K180" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>369.7</v>
@@ -9459,7 +9475,7 @@
         <v>215</v>
       </c>
       <c r="K181" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="L181" t="n">
         <v>370.4</v>
@@ -9510,7 +9526,7 @@
         <v>217</v>
       </c>
       <c r="K182" t="n">
-        <v>22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>370.8</v>
@@ -9561,7 +9577,7 @@
         <v>217</v>
       </c>
       <c r="K183" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>370.8</v>
@@ -9612,7 +9628,7 @@
         <v>220</v>
       </c>
       <c r="K184" t="n">
-        <v>12.5</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L184" t="n">
         <v>370.7</v>
@@ -9663,7 +9679,7 @@
         <v>220</v>
       </c>
       <c r="K185" t="n">
-        <v>16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>370.4</v>
@@ -9714,7 +9730,7 @@
         <v>220</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L186" t="n">
         <v>370</v>
@@ -9765,7 +9781,7 @@
         <v>220</v>
       </c>
       <c r="K187" t="n">
-        <v>17.24137931034483</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>369.8</v>
@@ -9816,7 +9832,7 @@
         <v>220</v>
       </c>
       <c r="K188" t="n">
-        <v>25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L188" t="n">
         <v>369.9</v>
@@ -9867,7 +9883,7 @@
         <v>221</v>
       </c>
       <c r="K189" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>369.9</v>
@@ -9918,7 +9934,7 @@
         <v>222</v>
       </c>
       <c r="K190" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>370</v>
@@ -9969,7 +9985,7 @@
         <v>222</v>
       </c>
       <c r="K191" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>370.1</v>
@@ -10020,7 +10036,7 @@
         <v>222</v>
       </c>
       <c r="K192" t="n">
-        <v>13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>370</v>
@@ -10071,7 +10087,7 @@
         <v>223</v>
       </c>
       <c r="K193" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>369.8</v>
@@ -10122,7 +10138,7 @@
         <v>224</v>
       </c>
       <c r="K194" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L194" t="n">
         <v>370</v>
@@ -10173,7 +10189,7 @@
         <v>224</v>
       </c>
       <c r="K195" t="n">
-        <v>-5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L195" t="n">
         <v>370.2</v>
@@ -10224,7 +10240,7 @@
         <v>224</v>
       </c>
       <c r="K196" t="n">
-        <v>-12.5</v>
+        <v>50</v>
       </c>
       <c r="L196" t="n">
         <v>370.4</v>
@@ -10275,7 +10291,7 @@
         <v>225</v>
       </c>
       <c r="K197" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L197" t="n">
         <v>370.5</v>
@@ -10326,7 +10342,7 @@
         <v>227</v>
       </c>
       <c r="K198" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>370.8</v>
@@ -10377,7 +10393,7 @@
         <v>228</v>
       </c>
       <c r="K199" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>371.1</v>
@@ -10428,7 +10444,7 @@
         <v>228</v>
       </c>
       <c r="K200" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>371.3</v>
@@ -10479,7 +10495,7 @@
         <v>229</v>
       </c>
       <c r="K201" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L201" t="n">
         <v>371.6</v>
@@ -10530,7 +10546,7 @@
         <v>229</v>
       </c>
       <c r="K202" t="n">
-        <v>16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L202" t="n">
         <v>371.9</v>
@@ -10581,7 +10597,7 @@
         <v>230</v>
       </c>
       <c r="K203" t="n">
-        <v>23.07692307692308</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L203" t="n">
         <v>372.4</v>
@@ -10632,7 +10648,7 @@
         <v>231</v>
       </c>
       <c r="K204" t="n">
-        <v>45.45454545454545</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L204" t="n">
         <v>372.7</v>
@@ -10683,7 +10699,7 @@
         <v>232</v>
       </c>
       <c r="K205" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L205" t="n">
         <v>372.9</v>
@@ -10734,7 +10750,7 @@
         <v>232</v>
       </c>
       <c r="K206" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L206" t="n">
         <v>373.1</v>
@@ -10785,7 +10801,7 @@
         <v>233</v>
       </c>
       <c r="K207" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>373.5</v>
@@ -10836,7 +10852,7 @@
         <v>235</v>
       </c>
       <c r="K208" t="n">
-        <v>46.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L208" t="n">
         <v>373.9</v>
@@ -10938,7 +10954,7 @@
         <v>236</v>
       </c>
       <c r="K210" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>374.4</v>
@@ -10989,7 +11005,7 @@
         <v>237</v>
       </c>
       <c r="K211" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L211" t="n">
         <v>374.6</v>
@@ -11040,7 +11056,7 @@
         <v>238</v>
       </c>
       <c r="K212" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>374.7</v>
@@ -11091,7 +11107,7 @@
         <v>238</v>
       </c>
       <c r="K213" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L213" t="n">
         <v>374.7</v>
@@ -11142,7 +11158,7 @@
         <v>238</v>
       </c>
       <c r="K214" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>374.8</v>
@@ -11193,7 +11209,7 @@
         <v>239</v>
       </c>
       <c r="K215" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L215" t="n">
         <v>375.1</v>
@@ -11244,7 +11260,7 @@
         <v>240</v>
       </c>
       <c r="K216" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>375.3</v>
@@ -11295,7 +11311,7 @@
         <v>241</v>
       </c>
       <c r="K217" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>375.5</v>
@@ -11346,7 +11362,7 @@
         <v>242</v>
       </c>
       <c r="K218" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L218" t="n">
         <v>375.4</v>
@@ -11397,7 +11413,7 @@
         <v>242</v>
       </c>
       <c r="K219" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>375.3</v>
@@ -11448,7 +11464,7 @@
         <v>243</v>
       </c>
       <c r="K220" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>375.4</v>
@@ -11499,7 +11515,7 @@
         <v>244</v>
       </c>
       <c r="K221" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>375.3</v>
@@ -11550,7 +11566,7 @@
         <v>245</v>
       </c>
       <c r="K222" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>375.4</v>
@@ -11601,7 +11617,7 @@
         <v>245</v>
       </c>
       <c r="K223" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L223" t="n">
         <v>375.5</v>
@@ -11652,7 +11668,7 @@
         <v>245</v>
       </c>
       <c r="K224" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>375.6</v>
@@ -11703,7 +11719,7 @@
         <v>245</v>
       </c>
       <c r="K225" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L225" t="n">
         <v>375.6</v>
@@ -11754,7 +11770,7 @@
         <v>246</v>
       </c>
       <c r="K226" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>375.8</v>
@@ -11805,7 +11821,7 @@
         <v>248</v>
       </c>
       <c r="K227" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>375.7</v>
@@ -11856,7 +11872,7 @@
         <v>248</v>
       </c>
       <c r="K228" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>375.7</v>
@@ -11907,7 +11923,7 @@
         <v>251</v>
       </c>
       <c r="K229" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L229" t="n">
         <v>375.4</v>
@@ -11958,7 +11974,7 @@
         <v>253</v>
       </c>
       <c r="K230" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L230" t="n">
         <v>375.2</v>
@@ -12009,7 +12025,7 @@
         <v>254</v>
       </c>
       <c r="K231" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L231" t="n">
         <v>375.2</v>
@@ -12060,7 +12076,7 @@
         <v>255</v>
       </c>
       <c r="K232" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L232" t="n">
         <v>375</v>
@@ -12111,7 +12127,7 @@
         <v>256</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L233" t="n">
         <v>374.9</v>
@@ -12162,7 +12178,7 @@
         <v>257</v>
       </c>
       <c r="K234" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>374.9</v>
@@ -12213,7 +12229,7 @@
         <v>257</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L235" t="n">
         <v>374.9</v>
@@ -12264,7 +12280,7 @@
         <v>257</v>
       </c>
       <c r="K236" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L236" t="n">
         <v>374.8</v>
@@ -12315,7 +12331,7 @@
         <v>258</v>
       </c>
       <c r="K237" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>374.8</v>
@@ -12366,7 +12382,7 @@
         <v>258</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L238" t="n">
         <v>374.8</v>
@@ -12417,7 +12433,7 @@
         <v>260</v>
       </c>
       <c r="K239" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L239" t="n">
         <v>375.3</v>
@@ -12468,7 +12484,7 @@
         <v>262</v>
       </c>
       <c r="K240" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L240" t="n">
         <v>375.8</v>
@@ -12519,7 +12535,7 @@
         <v>263</v>
       </c>
       <c r="K241" t="n">
-        <v>26.31578947368421</v>
+        <v>75</v>
       </c>
       <c r="L241" t="n">
         <v>376.3</v>
@@ -12570,7 +12586,7 @@
         <v>265</v>
       </c>
       <c r="K242" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L242" t="n">
         <v>376.7</v>
@@ -12621,7 +12637,7 @@
         <v>266</v>
       </c>
       <c r="K243" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L243" t="n">
         <v>377.1</v>
@@ -12672,7 +12688,7 @@
         <v>267</v>
       </c>
       <c r="K244" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
       <c r="L244" t="n">
         <v>377.5</v>
@@ -12723,7 +12739,7 @@
         <v>269</v>
       </c>
       <c r="K245" t="n">
-        <v>8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L245" t="n">
         <v>377.7</v>
@@ -12774,7 +12790,7 @@
         <v>269</v>
       </c>
       <c r="K246" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L246" t="n">
         <v>377.9</v>
@@ -12825,7 +12841,7 @@
         <v>269</v>
       </c>
       <c r="K247" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L247" t="n">
         <v>378.2</v>
@@ -12876,7 +12892,7 @@
         <v>269</v>
       </c>
       <c r="K248" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L248" t="n">
         <v>378.5</v>
@@ -12927,7 +12943,7 @@
         <v>269</v>
       </c>
       <c r="K249" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>378.6</v>
@@ -12978,7 +12994,7 @@
         <v>269</v>
       </c>
       <c r="K250" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>378.5</v>
@@ -13029,7 +13045,7 @@
         <v>270</v>
       </c>
       <c r="K251" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L251" t="n">
         <v>378.4</v>
@@ -13080,7 +13096,7 @@
         <v>271</v>
       </c>
       <c r="K252" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L252" t="n">
         <v>378.6</v>
@@ -13131,7 +13147,7 @@
         <v>271</v>
       </c>
       <c r="K253" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>378.7</v>
@@ -13182,7 +13198,7 @@
         <v>272</v>
       </c>
       <c r="K254" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>378.6</v>
@@ -13233,7 +13249,7 @@
         <v>272</v>
       </c>
       <c r="K255" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>378.7</v>
@@ -13284,7 +13300,7 @@
         <v>272</v>
       </c>
       <c r="K256" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>378.8</v>
@@ -13335,7 +13351,7 @@
         <v>272</v>
       </c>
       <c r="K257" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>378.9</v>
@@ -13386,7 +13402,7 @@
         <v>273</v>
       </c>
       <c r="K258" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L258" t="n">
         <v>379.1</v>
@@ -13437,7 +13453,7 @@
         <v>273</v>
       </c>
       <c r="K259" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L259" t="n">
         <v>379.3</v>
@@ -13488,7 +13504,7 @@
         <v>273</v>
       </c>
       <c r="K260" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>379.5</v>
@@ -13590,7 +13606,7 @@
         <v>273</v>
       </c>
       <c r="K262" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>379.6</v>
@@ -13641,7 +13657,7 @@
         <v>274</v>
       </c>
       <c r="K263" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
         <v>379.7</v>
@@ -13692,7 +13708,7 @@
         <v>274</v>
       </c>
       <c r="K264" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L264" t="n">
         <v>379.9</v>
@@ -13743,7 +13759,7 @@
         <v>276</v>
       </c>
       <c r="K265" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>379.9</v>
@@ -13794,7 +13810,7 @@
         <v>277</v>
       </c>
       <c r="K266" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>380</v>
@@ -13845,7 +13861,7 @@
         <v>277</v>
       </c>
       <c r="K267" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>380.1</v>
@@ -13896,7 +13912,7 @@
         <v>278</v>
       </c>
       <c r="K268" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L268" t="n">
         <v>380</v>
@@ -13947,7 +13963,7 @@
         <v>281</v>
       </c>
       <c r="K269" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L269" t="n">
         <v>380.2</v>
@@ -13998,7 +14014,7 @@
         <v>282</v>
       </c>
       <c r="K270" t="n">
-        <v>23.07692307692308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L270" t="n">
         <v>380.3</v>
@@ -14049,7 +14065,7 @@
         <v>284</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L271" t="n">
         <v>380.2</v>
@@ -14100,7 +14116,7 @@
         <v>287</v>
       </c>
       <c r="K272" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L272" t="n">
         <v>380.4</v>
@@ -14151,7 +14167,7 @@
         <v>287</v>
       </c>
       <c r="K273" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L273" t="n">
         <v>380.5</v>
@@ -14202,7 +14218,7 @@
         <v>287</v>
       </c>
       <c r="K274" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L274" t="n">
         <v>380.6</v>
@@ -14304,7 +14320,7 @@
         <v>289</v>
       </c>
       <c r="K276" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>380.9</v>
@@ -14355,7 +14371,7 @@
         <v>289</v>
       </c>
       <c r="K277" t="n">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L277" t="n">
         <v>380.9</v>
@@ -14406,7 +14422,7 @@
         <v>289</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L278" t="n">
         <v>381</v>
@@ -14457,7 +14473,7 @@
         <v>289</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L279" t="n">
         <v>380.8</v>
@@ -14508,7 +14524,7 @@
         <v>290</v>
       </c>
       <c r="K280" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>380.6</v>
@@ -14559,7 +14575,7 @@
         <v>290</v>
       </c>
       <c r="K281" t="n">
-        <v>-5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L281" t="n">
         <v>380.6</v>
@@ -14610,7 +14626,7 @@
         <v>292</v>
       </c>
       <c r="K282" t="n">
-        <v>-15.78947368421053</v>
+        <v>-100</v>
       </c>
       <c r="L282" t="n">
         <v>380.1</v>
@@ -14661,7 +14677,7 @@
         <v>293</v>
       </c>
       <c r="K283" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L283" t="n">
         <v>379.5</v>
@@ -14712,7 +14728,7 @@
         <v>293</v>
       </c>
       <c r="K284" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L284" t="n">
         <v>378.9</v>
@@ -14763,7 +14779,7 @@
         <v>294</v>
       </c>
       <c r="K285" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L285" t="n">
         <v>378.4</v>
@@ -14814,7 +14830,7 @@
         <v>294</v>
       </c>
       <c r="K286" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L286" t="n">
         <v>378.1</v>
@@ -14865,7 +14881,7 @@
         <v>294</v>
       </c>
       <c r="K287" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L287" t="n">
         <v>377.8</v>
@@ -14916,7 +14932,7 @@
         <v>294</v>
       </c>
       <c r="K288" t="n">
-        <v>-12.5</v>
+        <v>-60</v>
       </c>
       <c r="L288" t="n">
         <v>377.5</v>
@@ -14967,7 +14983,7 @@
         <v>295</v>
       </c>
       <c r="K289" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L289" t="n">
         <v>377.3</v>
@@ -15018,7 +15034,7 @@
         <v>296</v>
       </c>
       <c r="K290" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>377.3</v>
@@ -15069,7 +15085,7 @@
         <v>297</v>
       </c>
       <c r="K291" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L291" t="n">
         <v>377.2</v>
@@ -15120,7 +15136,7 @@
         <v>299</v>
       </c>
       <c r="K292" t="n">
-        <v>-16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L292" t="n">
         <v>377.5</v>
@@ -15171,7 +15187,7 @@
         <v>300</v>
       </c>
       <c r="K293" t="n">
-        <v>-23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L293" t="n">
         <v>377.8</v>
@@ -15222,7 +15238,7 @@
         <v>301</v>
       </c>
       <c r="K294" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L294" t="n">
         <v>378.2</v>
@@ -15273,7 +15289,7 @@
         <v>301</v>
       </c>
       <c r="K295" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L295" t="n">
         <v>378.5</v>
@@ -15324,7 +15340,7 @@
         <v>301</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L296" t="n">
         <v>378.8</v>
@@ -15375,7 +15391,7 @@
         <v>301</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L297" t="n">
         <v>379.1</v>
@@ -15426,7 +15442,7 @@
         <v>301</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>379.4</v>
@@ -15477,7 +15493,7 @@
         <v>302</v>
       </c>
       <c r="K299" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L299" t="n">
         <v>379.7</v>
@@ -15528,7 +15544,7 @@
         <v>303</v>
       </c>
       <c r="K300" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>379.8</v>
@@ -15579,7 +15595,7 @@
         <v>306</v>
       </c>
       <c r="K301" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L301" t="n">
         <v>380.3</v>
@@ -15630,7 +15646,7 @@
         <v>309</v>
       </c>
       <c r="K302" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L302" t="n">
         <v>380.3</v>
@@ -15681,7 +15697,7 @@
         <v>309</v>
       </c>
       <c r="K303" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>380.4</v>
@@ -15732,7 +15748,7 @@
         <v>309</v>
       </c>
       <c r="K304" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>380.4</v>
@@ -15783,7 +15799,7 @@
         <v>310</v>
       </c>
       <c r="K305" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L305" t="n">
         <v>380.3</v>
@@ -15834,7 +15850,7 @@
         <v>310</v>
       </c>
       <c r="K306" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L306" t="n">
         <v>380.2</v>
@@ -15885,7 +15901,7 @@
         <v>313</v>
       </c>
       <c r="K307" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L307" t="n">
         <v>379.8</v>
@@ -15936,7 +15952,7 @@
         <v>313</v>
       </c>
       <c r="K308" t="n">
-        <v>-5.263157894736842</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L308" t="n">
         <v>379.4</v>
@@ -15987,7 +16003,7 @@
         <v>315</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L309" t="n">
         <v>379.1</v>
@@ -16038,7 +16054,7 @@
         <v>316</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L310" t="n">
         <v>379</v>
@@ -16089,7 +16105,7 @@
         <v>316</v>
       </c>
       <c r="K311" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L311" t="n">
         <v>378.6</v>
@@ -16140,7 +16156,7 @@
         <v>316</v>
       </c>
       <c r="K312" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L312" t="n">
         <v>378.5</v>
@@ -16191,7 +16207,7 @@
         <v>316</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L313" t="n">
         <v>378.4</v>
@@ -16242,7 +16258,7 @@
         <v>317</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L314" t="n">
         <v>378.4</v>
@@ -16293,7 +16309,7 @@
         <v>317</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L315" t="n">
         <v>378.5</v>
@@ -16344,7 +16360,7 @@
         <v>317</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L316" t="n">
         <v>378.6</v>
@@ -16395,7 +16411,7 @@
         <v>318</v>
       </c>
       <c r="K317" t="n">
-        <v>-5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L317" t="n">
         <v>378.9</v>
@@ -16446,7 +16462,7 @@
         <v>318</v>
       </c>
       <c r="K318" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>379.2</v>
@@ -16497,7 +16513,7 @@
         <v>318</v>
       </c>
       <c r="K319" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>379.3</v>
@@ -16548,7 +16564,7 @@
         <v>319</v>
       </c>
       <c r="K320" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>379.2</v>
@@ -16599,7 +16615,7 @@
         <v>319</v>
       </c>
       <c r="K321" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>379.1</v>
@@ -16650,7 +16666,7 @@
         <v>319</v>
       </c>
       <c r="K322" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>379</v>
@@ -16701,7 +16717,7 @@
         <v>320</v>
       </c>
       <c r="K323" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L323" t="n">
         <v>378.8</v>
@@ -16752,7 +16768,7 @@
         <v>321</v>
       </c>
       <c r="K324" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L324" t="n">
         <v>378.6</v>
@@ -16803,7 +16819,7 @@
         <v>322</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L325" t="n">
         <v>378.5</v>
@@ -16854,7 +16870,7 @@
         <v>323</v>
       </c>
       <c r="K326" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>378.5</v>
@@ -16905,7 +16921,7 @@
         <v>323</v>
       </c>
       <c r="K327" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L327" t="n">
         <v>378.6</v>
@@ -16956,7 +16972,7 @@
         <v>324</v>
       </c>
       <c r="K328" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>378.8</v>
@@ -17007,7 +17023,7 @@
         <v>324</v>
       </c>
       <c r="K329" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L329" t="n">
         <v>379</v>
@@ -17058,7 +17074,7 @@
         <v>325</v>
       </c>
       <c r="K330" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L330" t="n">
         <v>379.4</v>
@@ -17109,7 +17125,7 @@
         <v>327</v>
       </c>
       <c r="K331" t="n">
-        <v>45.45454545454545</v>
+        <v>75</v>
       </c>
       <c r="L331" t="n">
         <v>380</v>
@@ -17160,7 +17176,7 @@
         <v>327</v>
       </c>
       <c r="K332" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L332" t="n">
         <v>380.6</v>
@@ -17211,7 +17227,7 @@
         <v>329</v>
       </c>
       <c r="K333" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L333" t="n">
         <v>381.5</v>
@@ -17262,7 +17278,7 @@
         <v>331</v>
       </c>
       <c r="K334" t="n">
-        <v>28.57142857142857</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L334" t="n">
         <v>382.1</v>
@@ -17313,7 +17329,7 @@
         <v>332</v>
       </c>
       <c r="K335" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L335" t="n">
         <v>382.7</v>
@@ -17364,7 +17380,7 @@
         <v>332</v>
       </c>
       <c r="K336" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L336" t="n">
         <v>383.2</v>
@@ -17466,7 +17482,7 @@
         <v>334</v>
       </c>
       <c r="K338" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L338" t="n">
         <v>383.8</v>
@@ -17517,7 +17533,7 @@
         <v>335</v>
       </c>
       <c r="K339" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L339" t="n">
         <v>384.1</v>
@@ -17568,7 +17584,7 @@
         <v>336</v>
       </c>
       <c r="K340" t="n">
-        <v>41.17647058823529</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L340" t="n">
         <v>384.4</v>
@@ -17619,7 +17635,7 @@
         <v>337</v>
       </c>
       <c r="K341" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>384.4</v>
@@ -17670,7 +17686,7 @@
         <v>337</v>
       </c>
       <c r="K342" t="n">
-        <v>33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L342" t="n">
         <v>384.4</v>
@@ -17721,7 +17737,7 @@
         <v>338</v>
       </c>
       <c r="K343" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L343" t="n">
         <v>384.1</v>
@@ -17772,7 +17788,7 @@
         <v>339</v>
       </c>
       <c r="K344" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L344" t="n">
         <v>384.1</v>
@@ -17823,7 +17839,7 @@
         <v>341</v>
       </c>
       <c r="K345" t="n">
-        <v>36.84210526315789</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L345" t="n">
         <v>384.2</v>
@@ -17874,7 +17890,7 @@
         <v>341</v>
       </c>
       <c r="K346" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L346" t="n">
         <v>384.3</v>
@@ -17925,7 +17941,7 @@
         <v>341</v>
       </c>
       <c r="K347" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L347" t="n">
         <v>384.5</v>
@@ -17976,7 +17992,7 @@
         <v>341</v>
       </c>
       <c r="K348" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>384.8</v>
@@ -18078,7 +18094,7 @@
         <v>343</v>
       </c>
       <c r="K350" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L350" t="n">
         <v>385.2</v>
@@ -18129,7 +18145,7 @@
         <v>346</v>
       </c>
       <c r="K351" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>385.1</v>
@@ -18180,7 +18196,7 @@
         <v>350</v>
       </c>
       <c r="K352" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L352" t="n">
         <v>385.4</v>
@@ -18231,7 +18247,7 @@
         <v>350</v>
       </c>
       <c r="K353" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L353" t="n">
         <v>385.8</v>
@@ -18282,7 +18298,7 @@
         <v>350</v>
       </c>
       <c r="K354" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L354" t="n">
         <v>386.1</v>
@@ -18333,7 +18349,7 @@
         <v>351</v>
       </c>
       <c r="K355" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L355" t="n">
         <v>386.3</v>
@@ -18384,7 +18400,7 @@
         <v>351</v>
       </c>
       <c r="K356" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L356" t="n">
         <v>386.5</v>
@@ -18435,7 +18451,7 @@
         <v>352</v>
       </c>
       <c r="K357" t="n">
-        <v>26.31578947368421</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L357" t="n">
         <v>386.8</v>
@@ -18486,7 +18502,7 @@
         <v>353</v>
       </c>
       <c r="K358" t="n">
-        <v>36.84210526315789</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L358" t="n">
         <v>387.2</v>
@@ -18537,7 +18553,7 @@
         <v>354</v>
       </c>
       <c r="K359" t="n">
-        <v>26.31578947368421</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L359" t="n">
         <v>387.4</v>
@@ -18588,7 +18604,7 @@
         <v>354</v>
       </c>
       <c r="K360" t="n">
-        <v>22.22222222222222</v>
+        <v>75</v>
       </c>
       <c r="L360" t="n">
         <v>387.7</v>
@@ -18639,7 +18655,7 @@
         <v>354</v>
       </c>
       <c r="K361" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L361" t="n">
         <v>388.3</v>
@@ -18690,7 +18706,7 @@
         <v>355</v>
       </c>
       <c r="K362" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L362" t="n">
         <v>388.4</v>
@@ -18741,7 +18757,7 @@
         <v>357</v>
       </c>
       <c r="K363" t="n">
-        <v>15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L363" t="n">
         <v>388.3</v>
@@ -18792,7 +18808,7 @@
         <v>359</v>
       </c>
       <c r="K364" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>388.4</v>
@@ -18843,7 +18859,7 @@
         <v>359</v>
       </c>
       <c r="K365" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>388.4</v>
@@ -18894,7 +18910,7 @@
         <v>360</v>
       </c>
       <c r="K366" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L366" t="n">
         <v>388.3</v>
@@ -18945,7 +18961,7 @@
         <v>361</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L367" t="n">
         <v>388</v>
@@ -18996,7 +19012,7 @@
         <v>361</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L368" t="n">
         <v>387.6</v>
@@ -19047,7 +19063,7 @@
         <v>363</v>
       </c>
       <c r="K369" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L369" t="n">
         <v>387.5</v>
@@ -19098,7 +19114,7 @@
         <v>365</v>
       </c>
       <c r="K370" t="n">
-        <v>18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L370" t="n">
         <v>387.6</v>
@@ -19149,7 +19165,7 @@
         <v>367</v>
       </c>
       <c r="K371" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>387.5</v>
@@ -19200,7 +19216,7 @@
         <v>370</v>
       </c>
       <c r="K372" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L372" t="n">
         <v>387.2</v>
@@ -19251,7 +19267,7 @@
         <v>370</v>
       </c>
       <c r="K373" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L373" t="n">
         <v>387.1</v>
@@ -19302,7 +19318,7 @@
         <v>370</v>
       </c>
       <c r="K374" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L374" t="n">
         <v>386.8</v>
@@ -19353,7 +19369,7 @@
         <v>370</v>
       </c>
       <c r="K375" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L375" t="n">
         <v>386.5</v>
@@ -19404,7 +19420,7 @@
         <v>370</v>
       </c>
       <c r="K376" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L376" t="n">
         <v>386.3</v>
@@ -19455,7 +19471,7 @@
         <v>371</v>
       </c>
       <c r="K377" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L377" t="n">
         <v>386.1</v>
@@ -19506,7 +19522,7 @@
         <v>371</v>
       </c>
       <c r="K378" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L378" t="n">
         <v>385.9</v>
@@ -19557,7 +19573,7 @@
         <v>372</v>
       </c>
       <c r="K379" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L379" t="n">
         <v>385.4</v>
@@ -19608,7 +19624,7 @@
         <v>372</v>
       </c>
       <c r="K380" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L380" t="n">
         <v>384.7</v>
@@ -19659,7 +19675,7 @@
         <v>372</v>
       </c>
       <c r="K381" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L381" t="n">
         <v>384.2</v>
@@ -19710,7 +19726,7 @@
         <v>373</v>
       </c>
       <c r="K382" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L382" t="n">
         <v>383.9</v>
@@ -19761,7 +19777,7 @@
         <v>373</v>
       </c>
       <c r="K383" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L383" t="n">
         <v>383.6</v>
@@ -19812,7 +19828,7 @@
         <v>375</v>
       </c>
       <c r="K384" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L384" t="n">
         <v>383.5</v>
@@ -19863,7 +19879,7 @@
         <v>376</v>
       </c>
       <c r="K385" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>383.3</v>
@@ -19914,7 +19930,7 @@
         <v>378</v>
       </c>
       <c r="K386" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L386" t="n">
         <v>383.3</v>
@@ -19965,7 +19981,7 @@
         <v>378</v>
       </c>
       <c r="K387" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L387" t="n">
         <v>383.4</v>
@@ -20016,7 +20032,7 @@
         <v>379</v>
       </c>
       <c r="K388" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L388" t="n">
         <v>383.4</v>
@@ -20067,7 +20083,7 @@
         <v>381</v>
       </c>
       <c r="K389" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>383.7</v>
@@ -20118,7 +20134,7 @@
         <v>382</v>
       </c>
       <c r="K390" t="n">
-        <v>-29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>383.9</v>
@@ -20169,7 +20185,7 @@
         <v>383</v>
       </c>
       <c r="K391" t="n">
-        <v>-12.5</v>
+        <v>40</v>
       </c>
       <c r="L391" t="n">
         <v>384.2</v>
@@ -20220,7 +20236,7 @@
         <v>384</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L392" t="n">
         <v>384.5</v>
@@ -20271,7 +20287,7 @@
         <v>385</v>
       </c>
       <c r="K393" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L393" t="n">
         <v>384.9</v>
@@ -20322,7 +20338,7 @@
         <v>386</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L394" t="n">
         <v>385</v>
@@ -20475,7 +20491,7 @@
         <v>386</v>
       </c>
       <c r="K397" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L397" t="n">
         <v>385.2</v>
@@ -20526,7 +20542,7 @@
         <v>386</v>
       </c>
       <c r="K398" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L398" t="n">
         <v>385.3</v>
@@ -20577,7 +20593,7 @@
         <v>386</v>
       </c>
       <c r="K399" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>385.2</v>
@@ -20628,7 +20644,7 @@
         <v>386</v>
       </c>
       <c r="K400" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>385.2</v>
@@ -20679,7 +20695,7 @@
         <v>387</v>
       </c>
       <c r="K401" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>385</v>
@@ -20730,7 +20746,7 @@
         <v>388</v>
       </c>
       <c r="K402" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>385</v>
@@ -20781,7 +20797,7 @@
         <v>388</v>
       </c>
       <c r="K403" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>384.9</v>
@@ -20832,7 +20848,7 @@
         <v>388</v>
       </c>
       <c r="K404" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>384.9</v>
@@ -20883,7 +20899,7 @@
         <v>388</v>
       </c>
       <c r="K405" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>384.9</v>
@@ -21036,7 +21052,7 @@
         <v>388</v>
       </c>
       <c r="K408" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>384.9</v>
@@ -21087,7 +21103,7 @@
         <v>389</v>
       </c>
       <c r="K409" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L409" t="n">
         <v>385</v>
@@ -21138,7 +21154,7 @@
         <v>389</v>
       </c>
       <c r="K410" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L410" t="n">
         <v>385.1</v>
@@ -21189,7 +21205,7 @@
         <v>391</v>
       </c>
       <c r="K411" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>385.1</v>
@@ -21240,7 +21256,7 @@
         <v>391</v>
       </c>
       <c r="K412" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>385</v>
@@ -21291,7 +21307,7 @@
         <v>392</v>
       </c>
       <c r="K413" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L413" t="n">
         <v>384.8</v>
@@ -21342,7 +21358,7 @@
         <v>395</v>
       </c>
       <c r="K414" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L414" t="n">
         <v>384.9</v>
@@ -21393,7 +21409,7 @@
         <v>398</v>
       </c>
       <c r="K415" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L415" t="n">
         <v>384.7</v>
@@ -21444,7 +21460,7 @@
         <v>399</v>
       </c>
       <c r="K416" t="n">
-        <v>-23.07692307692308</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L416" t="n">
         <v>384.4</v>
@@ -21495,7 +21511,7 @@
         <v>399</v>
       </c>
       <c r="K417" t="n">
-        <v>-23.07692307692308</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L417" t="n">
         <v>384.1</v>
@@ -21546,7 +21562,7 @@
         <v>400</v>
       </c>
       <c r="K418" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L418" t="n">
         <v>383.9</v>
@@ -21597,7 +21613,7 @@
         <v>400</v>
       </c>
       <c r="K419" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L419" t="n">
         <v>383.6</v>
@@ -21648,7 +21664,7 @@
         <v>402</v>
       </c>
       <c r="K420" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L420" t="n">
         <v>383.1</v>
@@ -21699,7 +21715,7 @@
         <v>402</v>
       </c>
       <c r="K421" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L421" t="n">
         <v>382.8</v>
@@ -21750,7 +21766,7 @@
         <v>402</v>
       </c>
       <c r="K422" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L422" t="n">
         <v>382.5</v>
@@ -21801,7 +21817,7 @@
         <v>406</v>
       </c>
       <c r="K423" t="n">
-        <v>-44.44444444444444</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L423" t="n">
         <v>381.9</v>
@@ -21852,7 +21868,7 @@
         <v>407</v>
       </c>
       <c r="K424" t="n">
-        <v>-36.84210526315789</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L424" t="n">
         <v>381.1</v>
@@ -21903,7 +21919,7 @@
         <v>408</v>
       </c>
       <c r="K425" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>380.7</v>
@@ -21954,7 +21970,7 @@
         <v>409</v>
       </c>
       <c r="K426" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L426" t="n">
         <v>380.5</v>
@@ -22005,7 +22021,7 @@
         <v>411</v>
       </c>
       <c r="K427" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L427" t="n">
         <v>380.5</v>
@@ -22056,7 +22072,7 @@
         <v>413</v>
       </c>
       <c r="K428" t="n">
-        <v>-4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L428" t="n">
         <v>380.6</v>
@@ -22107,7 +22123,7 @@
         <v>413</v>
       </c>
       <c r="K429" t="n">
-        <v>-8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L429" t="n">
         <v>380.7</v>
@@ -22158,7 +22174,7 @@
         <v>415</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L430" t="n">
         <v>381.2</v>
@@ -22209,7 +22225,7 @@
         <v>415</v>
       </c>
       <c r="K431" t="n">
-        <v>8.333333333333332</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L431" t="n">
         <v>381.7</v>
@@ -22260,7 +22276,7 @@
         <v>416</v>
       </c>
       <c r="K432" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="L432" t="n">
         <v>382.1</v>
@@ -22311,7 +22327,7 @@
         <v>418</v>
       </c>
       <c r="K433" t="n">
-        <v>15.38461538461539</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L433" t="n">
         <v>383.1</v>
@@ -22362,7 +22378,7 @@
         <v>420</v>
       </c>
       <c r="K434" t="n">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="L434" t="n">
         <v>383.8</v>
@@ -22413,7 +22429,7 @@
         <v>421</v>
       </c>
       <c r="K435" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>384.3</v>
@@ -22464,7 +22480,7 @@
         <v>421</v>
       </c>
       <c r="K436" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L436" t="n">
         <v>384.7</v>
@@ -22515,7 +22531,7 @@
         <v>424</v>
       </c>
       <c r="K437" t="n">
-        <v>-4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L437" t="n">
         <v>384.6</v>
@@ -22566,7 +22582,7 @@
         <v>425</v>
       </c>
       <c r="K438" t="n">
-        <v>-4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L438" t="n">
         <v>384.4</v>
@@ -22617,7 +22633,7 @@
         <v>426</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L439" t="n">
         <v>384.3</v>
@@ -22668,7 +22684,7 @@
         <v>426</v>
       </c>
       <c r="K440" t="n">
-        <v>8.333333333333332</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L440" t="n">
         <v>384</v>
@@ -22719,7 +22735,7 @@
         <v>427</v>
       </c>
       <c r="K441" t="n">
-        <v>4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L441" t="n">
         <v>383.6</v>
@@ -22770,7 +22786,7 @@
         <v>427</v>
       </c>
       <c r="K442" t="n">
-        <v>4</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L442" t="n">
         <v>383.3</v>
@@ -22821,7 +22837,7 @@
         <v>427</v>
       </c>
       <c r="K443" t="n">
-        <v>23.80952380952381</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L443" t="n">
         <v>382.8</v>
@@ -22872,7 +22888,7 @@
         <v>429</v>
       </c>
       <c r="K444" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>382.7</v>
@@ -22923,7 +22939,7 @@
         <v>431</v>
       </c>
       <c r="K445" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L445" t="n">
         <v>382.9</v>
@@ -22974,7 +22990,7 @@
         <v>432</v>
       </c>
       <c r="K446" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="L446" t="n">
         <v>383</v>
@@ -23025,7 +23041,7 @@
         <v>432</v>
       </c>
       <c r="K447" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L447" t="n">
         <v>383.4</v>
@@ -23076,7 +23092,7 @@
         <v>433</v>
       </c>
       <c r="K448" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L448" t="n">
         <v>383.6</v>
@@ -23127,7 +23143,7 @@
         <v>433</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L449" t="n">
         <v>383.7</v>
@@ -23178,7 +23194,7 @@
         <v>433</v>
       </c>
       <c r="K450" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L450" t="n">
         <v>383.8</v>
@@ -23229,7 +23245,7 @@
         <v>433</v>
       </c>
       <c r="K451" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L451" t="n">
         <v>384</v>
@@ -23280,7 +23296,7 @@
         <v>433</v>
       </c>
       <c r="K452" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>384.2</v>
@@ -23331,7 +23347,7 @@
         <v>434</v>
       </c>
       <c r="K453" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L453" t="n">
         <v>384.3</v>
@@ -23382,7 +23398,7 @@
         <v>435</v>
       </c>
       <c r="K454" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L454" t="n">
         <v>384.3</v>
@@ -23433,7 +23449,7 @@
         <v>435</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>384.1</v>
@@ -23484,7 +23500,7 @@
         <v>436</v>
       </c>
       <c r="K456" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L456" t="n">
         <v>383.9</v>
@@ -23535,7 +23551,7 @@
         <v>438</v>
       </c>
       <c r="K457" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L457" t="n">
         <v>383.9</v>
@@ -23586,7 +23602,7 @@
         <v>438</v>
       </c>
       <c r="K458" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L458" t="n">
         <v>384</v>
@@ -23637,7 +23653,7 @@
         <v>438</v>
       </c>
       <c r="K459" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L459" t="n">
         <v>384.1</v>
@@ -23688,7 +23704,7 @@
         <v>439</v>
       </c>
       <c r="K460" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>384.1</v>
@@ -23739,7 +23755,7 @@
         <v>440</v>
       </c>
       <c r="K461" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L461" t="n">
         <v>384</v>
@@ -23790,7 +23806,7 @@
         <v>441</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L462" t="n">
         <v>383.8</v>
@@ -23841,7 +23857,7 @@
         <v>441</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>383.7</v>
@@ -23892,7 +23908,7 @@
         <v>442</v>
       </c>
       <c r="K464" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L464" t="n">
         <v>383.6</v>
@@ -23943,7 +23959,7 @@
         <v>442</v>
       </c>
       <c r="K465" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>383.5</v>
@@ -23994,7 +24010,7 @@
         <v>443</v>
       </c>
       <c r="K466" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L466" t="n">
         <v>383.6</v>
@@ -24045,7 +24061,7 @@
         <v>444</v>
       </c>
       <c r="K467" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>383.4</v>
@@ -24096,7 +24112,7 @@
         <v>445</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L468" t="n">
         <v>383.3</v>
@@ -24147,7 +24163,7 @@
         <v>446</v>
       </c>
       <c r="K469" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L469" t="n">
         <v>383.1</v>
@@ -24198,7 +24214,7 @@
         <v>446</v>
       </c>
       <c r="K470" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>383</v>
@@ -24249,7 +24265,7 @@
         <v>447</v>
       </c>
       <c r="K471" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>382.9</v>
@@ -24402,7 +24418,7 @@
         <v>452</v>
       </c>
       <c r="K474" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>382.8</v>
@@ -24453,7 +24469,7 @@
         <v>454</v>
       </c>
       <c r="K475" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L475" t="n">
         <v>382.6</v>
@@ -24504,7 +24520,7 @@
         <v>455</v>
       </c>
       <c r="K476" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L476" t="n">
         <v>382.4</v>
@@ -24555,7 +24571,7 @@
         <v>456</v>
       </c>
       <c r="K477" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L477" t="n">
         <v>382.4</v>
@@ -24606,7 +24622,7 @@
         <v>456</v>
       </c>
       <c r="K478" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>382.3</v>
@@ -24657,7 +24673,7 @@
         <v>456</v>
       </c>
       <c r="K479" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>382.3</v>
@@ -24708,7 +24724,7 @@
         <v>457</v>
       </c>
       <c r="K480" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>382.2</v>
@@ -24759,7 +24775,7 @@
         <v>459</v>
       </c>
       <c r="K481" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>382</v>
@@ -24810,7 +24826,7 @@
         <v>460</v>
       </c>
       <c r="K482" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L482" t="n">
         <v>382.1</v>
@@ -24861,7 +24877,7 @@
         <v>460</v>
       </c>
       <c r="K483" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L483" t="n">
         <v>381.9</v>
@@ -24912,7 +24928,7 @@
         <v>460</v>
       </c>
       <c r="K484" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L484" t="n">
         <v>381.7</v>
@@ -24963,7 +24979,7 @@
         <v>461</v>
       </c>
       <c r="K485" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>381.6</v>
@@ -25014,7 +25030,7 @@
         <v>462</v>
       </c>
       <c r="K486" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>381.5</v>
@@ -25065,7 +25081,7 @@
         <v>462</v>
       </c>
       <c r="K487" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>381.3</v>
@@ -25116,7 +25132,7 @@
         <v>466</v>
       </c>
       <c r="K488" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L488" t="n">
         <v>380.7</v>
@@ -25167,7 +25183,7 @@
         <v>467</v>
       </c>
       <c r="K489" t="n">
-        <v>-23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L489" t="n">
         <v>380.2</v>
@@ -25218,7 +25234,7 @@
         <v>467</v>
       </c>
       <c r="K490" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L490" t="n">
         <v>379.8</v>
@@ -25269,7 +25285,7 @@
         <v>468</v>
       </c>
       <c r="K491" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L491" t="n">
         <v>379.7</v>
@@ -25320,7 +25336,7 @@
         <v>469</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L492" t="n">
         <v>379.6</v>
@@ -25371,7 +25387,7 @@
         <v>469</v>
       </c>
       <c r="K493" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L493" t="n">
         <v>379.5</v>
@@ -25422,7 +25438,7 @@
         <v>469</v>
       </c>
       <c r="K494" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>379.4</v>
@@ -25473,7 +25489,7 @@
         <v>469</v>
       </c>
       <c r="K495" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L495" t="n">
         <v>379.4</v>
@@ -25575,7 +25591,7 @@
         <v>470</v>
       </c>
       <c r="K497" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L497" t="n">
         <v>379.3</v>
@@ -25626,7 +25642,7 @@
         <v>470</v>
       </c>
       <c r="K498" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L498" t="n">
         <v>379.7</v>
@@ -25677,7 +25693,7 @@
         <v>471</v>
       </c>
       <c r="K499" t="n">
-        <v>-6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L499" t="n">
         <v>380.1</v>
@@ -25728,7 +25744,7 @@
         <v>473</v>
       </c>
       <c r="K500" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L500" t="n">
         <v>380.3</v>
@@ -25779,7 +25795,7 @@
         <v>474</v>
       </c>
       <c r="K501" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L501" t="n">
         <v>380.3</v>
@@ -25830,7 +25846,7 @@
         <v>479</v>
       </c>
       <c r="K502" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L502" t="n">
         <v>380.7</v>
@@ -25881,7 +25897,7 @@
         <v>481</v>
       </c>
       <c r="K503" t="n">
-        <v>4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L503" t="n">
         <v>380.9</v>
@@ -25932,7 +25948,7 @@
         <v>481</v>
       </c>
       <c r="K504" t="n">
-        <v>4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L504" t="n">
         <v>381.1</v>
@@ -25983,7 +25999,7 @@
         <v>481</v>
       </c>
       <c r="K505" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L505" t="n">
         <v>381.3</v>
@@ -26034,7 +26050,7 @@
         <v>481</v>
       </c>
       <c r="K506" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L506" t="n">
         <v>381.5</v>
@@ -26085,7 +26101,7 @@
         <v>481</v>
       </c>
       <c r="K507" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L507" t="n">
         <v>381.6</v>
@@ -26136,7 +26152,7 @@
         <v>481</v>
       </c>
       <c r="K508" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>381.7</v>
@@ -26238,7 +26254,7 @@
         <v>484</v>
       </c>
       <c r="K510" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L510" t="n">
         <v>381.9</v>
@@ -26289,7 +26305,7 @@
         <v>486</v>
       </c>
       <c r="K511" t="n">
-        <v>22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L511" t="n">
         <v>382.3</v>
@@ -26340,7 +26356,7 @@
         <v>486</v>
       </c>
       <c r="K512" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>382.2</v>
@@ -26391,7 +26407,7 @@
         <v>488</v>
       </c>
       <c r="K513" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L513" t="n">
         <v>382.5</v>
@@ -26442,7 +26458,7 @@
         <v>490</v>
       </c>
       <c r="K514" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L514" t="n">
         <v>382.6</v>
@@ -26493,7 +26509,7 @@
         <v>490</v>
       </c>
       <c r="K515" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L515" t="n">
         <v>382.7</v>
@@ -26544,7 +26560,7 @@
         <v>491</v>
       </c>
       <c r="K516" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L516" t="n">
         <v>382.9</v>
@@ -26595,7 +26611,7 @@
         <v>491</v>
       </c>
       <c r="K517" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L517" t="n">
         <v>383.1</v>
@@ -26646,7 +26662,7 @@
         <v>492</v>
       </c>
       <c r="K518" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L518" t="n">
         <v>383.4</v>
@@ -26697,7 +26713,7 @@
         <v>493</v>
       </c>
       <c r="K519" t="n">
-        <v>18.18181818181818</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L519" t="n">
         <v>383.7</v>
@@ -26748,7 +26764,7 @@
         <v>494</v>
       </c>
       <c r="K520" t="n">
-        <v>23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L520" t="n">
         <v>384.1</v>
@@ -26850,7 +26866,7 @@
         <v>496</v>
       </c>
       <c r="K522" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>384.6</v>
@@ -26901,7 +26917,7 @@
         <v>497</v>
       </c>
       <c r="K523" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L523" t="n">
         <v>384.5</v>
@@ -26952,7 +26968,7 @@
         <v>498</v>
       </c>
       <c r="K524" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L524" t="n">
         <v>384.7</v>
@@ -27003,7 +27019,7 @@
         <v>498</v>
       </c>
       <c r="K525" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L525" t="n">
         <v>384.9</v>
@@ -27054,7 +27070,7 @@
         <v>499</v>
       </c>
       <c r="K526" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>384.9</v>
@@ -27105,7 +27121,7 @@
         <v>500</v>
       </c>
       <c r="K527" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L527" t="n">
         <v>384.8</v>
@@ -27156,7 +27172,7 @@
         <v>500</v>
       </c>
       <c r="K528" t="n">
-        <v>5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L528" t="n">
         <v>384.6</v>
@@ -27207,7 +27223,7 @@
         <v>501</v>
       </c>
       <c r="K529" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L529" t="n">
         <v>384.4</v>
@@ -27258,7 +27274,7 @@
         <v>501</v>
       </c>
       <c r="K530" t="n">
-        <v>17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L530" t="n">
         <v>384.3</v>
@@ -27309,7 +27325,7 @@
         <v>502</v>
       </c>
       <c r="K531" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>384.2</v>
@@ -27360,7 +27376,7 @@
         <v>503</v>
       </c>
       <c r="K532" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L532" t="n">
         <v>384.3</v>
@@ -27411,7 +27427,7 @@
         <v>505</v>
       </c>
       <c r="K533" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L533" t="n">
         <v>384.3</v>
@@ -27462,7 +27478,7 @@
         <v>506</v>
       </c>
       <c r="K534" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
         <v>384.3</v>
@@ -27513,7 +27529,7 @@
         <v>507</v>
       </c>
       <c r="K535" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L535" t="n">
         <v>384.2</v>
@@ -27564,7 +27580,7 @@
         <v>507</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L536" t="n">
         <v>384.2</v>
@@ -27615,7 +27631,7 @@
         <v>507</v>
       </c>
       <c r="K537" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L537" t="n">
         <v>384.3</v>
@@ -27666,7 +27682,7 @@
         <v>508</v>
       </c>
       <c r="K538" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L538" t="n">
         <v>384.3</v>
@@ -27717,7 +27733,7 @@
         <v>508</v>
       </c>
       <c r="K539" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L539" t="n">
         <v>384.2</v>

--- a/BackTest/2019-10-17 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-17 BackTest ZRX.xlsx
@@ -451,17 +451,13 @@
         <v>363.0166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>363</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>363.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>366</v>
-      </c>
-      <c r="K3" t="n">
-        <v>363</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>363.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>369</v>
-      </c>
-      <c r="K4" t="n">
-        <v>363</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>363.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>368</v>
-      </c>
-      <c r="K5" t="n">
-        <v>368</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>364.0166666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>368</v>
-      </c>
-      <c r="K6" t="n">
-        <v>368</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>364.2333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>366</v>
-      </c>
-      <c r="K7" t="n">
-        <v>368</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>364.4333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>365</v>
-      </c>
-      <c r="K8" t="n">
-        <v>365</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>364.6666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>365</v>
-      </c>
-      <c r="K9" t="n">
-        <v>365</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>364.9166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>366</v>
-      </c>
-      <c r="K10" t="n">
-        <v>365</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,22 +766,14 @@
         <v>365.1666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>366</v>
-      </c>
-      <c r="K11" t="n">
-        <v>365</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>365.4666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>366</v>
-      </c>
-      <c r="K12" t="n">
-        <v>365</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>365.7166666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>368</v>
-      </c>
-      <c r="K13" t="n">
-        <v>365</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>366.05</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>371</v>
-      </c>
-      <c r="K14" t="n">
-        <v>365</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,22 +906,14 @@
         <v>366.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>371</v>
-      </c>
-      <c r="K15" t="n">
-        <v>365</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>365</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>365</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>365</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>365</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>365</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>365</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>365</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>365</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>365</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1416,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>365</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>365</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1498,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>365</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1539,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>365</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1577,17 +1399,11 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>365</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1618,17 +1434,11 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>365</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1662,16 +1472,10 @@
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>365</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>1.044315068493151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1840,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3727,20 +3531,14 @@
         <v>372.9333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>364</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3768,20 +3566,14 @@
         <v>372.6</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>363</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3809,20 +3601,14 @@
         <v>372.25</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>363</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3850,20 +3636,14 @@
         <v>372.0166666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>363</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3899,12 +3679,10 @@
       <c r="J94" t="n">
         <v>363</v>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="n">
+        <v>363</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3938,12 +3716,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>365</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>363</v>
+      </c>
+      <c r="K95" t="n">
+        <v>363</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3979,12 +3759,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>365</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K96" t="n">
+        <v>363</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -4021,11 +3803,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4053,20 +3831,14 @@
         <v>370.7166666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>365</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4094,20 +3866,14 @@
         <v>370.4833333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>365</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4135,20 +3901,14 @@
         <v>370.3333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>367</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4176,20 +3936,14 @@
         <v>370.1833333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>365</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4217,20 +3971,14 @@
         <v>370.0666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>365</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4258,20 +4006,14 @@
         <v>369.95</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>365</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4299,20 +4041,14 @@
         <v>369.8166666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>364</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4347,11 +4083,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4379,20 +4111,14 @@
         <v>369.3833333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>364</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4420,20 +4146,14 @@
         <v>369.1666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>365</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4461,20 +4181,14 @@
         <v>368.95</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>365</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4502,20 +4216,14 @@
         <v>368.7166666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>365</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4543,20 +4251,14 @@
         <v>368.5</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>365</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4584,20 +4286,14 @@
         <v>368.2833333333334</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>365</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4625,20 +4321,14 @@
         <v>368.0833333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>365</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4666,20 +4356,14 @@
         <v>367.95</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>366</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4707,20 +4391,14 @@
         <v>367.8333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>366</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4748,20 +4426,14 @@
         <v>367.7666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>367</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4789,20 +4461,14 @@
         <v>367.7333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>367</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4830,20 +4496,14 @@
         <v>367.6333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>366</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4871,20 +4531,14 @@
         <v>367.55</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>368</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4912,20 +4566,14 @@
         <v>367.4833333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>367</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4953,20 +4601,14 @@
         <v>367.3833333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>366</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4994,20 +4636,14 @@
         <v>367.3166666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>365</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5035,20 +4671,14 @@
         <v>367.25</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>366</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5076,20 +4706,14 @@
         <v>367.1666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>366</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5117,20 +4741,14 @@
         <v>367.0833333333333</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>366</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5158,20 +4776,14 @@
         <v>366.9833333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>366</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5199,20 +4811,14 @@
         <v>366.8666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>366</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5240,20 +4846,14 @@
         <v>366.7</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>366</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5281,20 +4881,14 @@
         <v>366.5333333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>366</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5322,20 +4916,14 @@
         <v>366.3666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>366</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5363,20 +4951,14 @@
         <v>366.2</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>366</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5404,20 +4986,14 @@
         <v>366.05</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>366</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5445,20 +5021,14 @@
         <v>365.9</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>366</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5486,20 +5056,14 @@
         <v>365.75</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>366</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5527,20 +5091,14 @@
         <v>365.6666666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>367</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5568,20 +5126,14 @@
         <v>365.6166666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>368</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5609,20 +5161,14 @@
         <v>365.55</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>367</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5650,20 +5196,14 @@
         <v>365.5166666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>367</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5691,20 +5231,14 @@
         <v>365.5166666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>369</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5732,20 +5266,14 @@
         <v>365.55</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>369</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5773,20 +5301,14 @@
         <v>365.6</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>370</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5343,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5378,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +5413,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5938,11 +5448,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5977,11 +5483,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +5518,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +5553,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +5588,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6133,11 +5623,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6172,11 +5658,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +5693,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6250,11 +5728,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6289,11 +5763,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +5798,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6367,11 +5833,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6406,11 +5868,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6445,11 +5903,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6480,16 +5934,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6517,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6759,17 +6211,13 @@
         <v>368.0666666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>363</v>
-      </c>
-      <c r="K166" t="n">
-        <v>363</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
@@ -6798,22 +6246,14 @@
         <v>368.05</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>364</v>
-      </c>
-      <c r="K167" t="n">
-        <v>363</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6841,22 +6281,14 @@
         <v>368</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>363</v>
-      </c>
-      <c r="K168" t="n">
-        <v>363</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6884,22 +6316,14 @@
         <v>367.9833333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>363</v>
-      </c>
-      <c r="K169" t="n">
-        <v>363</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6927,22 +6351,14 @@
         <v>367.95</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>363</v>
-      </c>
-      <c r="K170" t="n">
-        <v>363</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6970,22 +6386,14 @@
         <v>367.9166666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>363</v>
-      </c>
-      <c r="K171" t="n">
-        <v>363</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7013,22 +6421,14 @@
         <v>367.9666666666666</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>368</v>
-      </c>
-      <c r="K172" t="n">
-        <v>363</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7056,22 +6456,14 @@
         <v>368.0666666666667</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>370</v>
-      </c>
-      <c r="K173" t="n">
-        <v>363</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7099,22 +6491,14 @@
         <v>368.1333333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>370</v>
-      </c>
-      <c r="K174" t="n">
-        <v>363</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7142,22 +6526,14 @@
         <v>368.2166666666666</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>372</v>
-      </c>
-      <c r="K175" t="n">
-        <v>363</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7191,14 +6567,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>363</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7232,14 +6602,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>363</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7273,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>363</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7314,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>363</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7355,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>363</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7396,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>363</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7437,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>363</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +6812,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>363</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7519,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>363</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7560,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>363</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7601,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>363</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>363</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7683,14 +6987,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>363</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +7022,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>363</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>363</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7806,14 +7092,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>363</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7847,14 +7127,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>363</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7888,14 +7162,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>363</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7929,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>363</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7970,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>363</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8011,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>363</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8052,14 +7302,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>363</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8093,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>363</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8134,14 +7372,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>363</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8175,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>363</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8216,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>363</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8257,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>363</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8298,14 +7512,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>363</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8339,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>363</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8380,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>363</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8421,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>363</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8462,14 +7652,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>363</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8503,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>363</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8544,14 +7722,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>363</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8585,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>363</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8626,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>363</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8667,14 +7827,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>363</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8708,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>363</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8749,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>363</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8790,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>363</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8831,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>363</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8872,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>363</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8913,14 +8037,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>363</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8954,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>363</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8995,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>363</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9036,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>363</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +8177,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>363</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9118,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>363</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9159,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>363</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9200,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>363</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9241,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>363</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9282,14 +8352,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>363</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9323,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>363</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9364,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>363</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9405,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>363</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9446,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>363</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9487,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>363</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9528,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>363</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9569,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>363</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9610,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>363</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9651,14 +8667,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>363</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9692,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>363</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9733,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>363</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9774,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>363</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9815,14 +8807,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>363</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9856,14 +8842,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>363</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9897,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>363</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9938,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>363</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9976,19 +8944,13 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>363</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
-        <v>1.041831955922865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -10017,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -10052,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-17 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1771,7 +1771,7 @@
         <v>1493.912694344176</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>17113.44909434418</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>15282.11829434418</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1438.62730565582</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-55824.35630565582</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-52774.35650565582</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-47354.06020565582</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-50140.37310565582</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,14 +2365,10 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>363</v>
-      </c>
-      <c r="J60" t="n">
-        <v>363</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2402,19 +2398,11 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>363</v>
-      </c>
-      <c r="J61" t="n">
-        <v>363</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2443,19 +2431,11 @@
         <v>-46019.09480565582</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>363</v>
-      </c>
-      <c r="J62" t="n">
-        <v>363</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2464,10 @@
         <v>-31503.69480565582</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>367</v>
-      </c>
-      <c r="J63" t="n">
-        <v>367</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2521,17 +2497,11 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>367</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2560,17 +2530,11 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>367</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2599,7 +2563,7 @@
         <v>-31924.42810565582</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2632,7 +2596,7 @@
         <v>-35021.82640565582</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2665,7 +2629,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2698,7 +2662,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2731,7 +2695,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2764,7 +2728,7 @@
         <v>-34438.99910565581</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2797,7 +2761,7 @@
         <v>-34558.92920565581</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2830,7 +2794,7 @@
         <v>-34029.92920565581</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -5239,14 +5203,10 @@
         <v>-52326.79376091187</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>364</v>
-      </c>
-      <c r="J146" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5276,19 +5236,11 @@
         <v>-57578.01756091187</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>364</v>
-      </c>
-      <c r="J147" t="n">
-        <v>364</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5317,19 +5269,11 @@
         <v>-56455.30006091187</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>361</v>
-      </c>
-      <c r="J148" t="n">
-        <v>364</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5358,19 +5302,11 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>365</v>
-      </c>
-      <c r="J149" t="n">
-        <v>364</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5399,19 +5335,11 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>363</v>
-      </c>
-      <c r="J150" t="n">
-        <v>364</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5440,19 +5368,11 @@
         <v>-58201.95696091187</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>363</v>
-      </c>
-      <c r="J151" t="n">
-        <v>364</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5481,19 +5401,11 @@
         <v>-57768.22216091187</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>362</v>
-      </c>
-      <c r="J152" t="n">
-        <v>364</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5528,13 +5440,9 @@
         <v>363</v>
       </c>
       <c r="J153" t="n">
-        <v>364</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5563,17 +5471,15 @@
         <v>-8521.320560911874</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
         <v>363</v>
       </c>
-      <c r="J154" t="n">
-        <v>364</v>
-      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5608,11 +5514,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5646,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>364</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5682,17 +5582,15 @@
         <v>-22384.00356091187</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>363</v>
+      </c>
       <c r="J157" t="n">
-        <v>364</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5623,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5764,11 +5662,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5799,17 +5697,15 @@
         <v>-22364.64186091187</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>367</v>
+      </c>
       <c r="J160" t="n">
-        <v>364</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5838,15 +5734,17 @@
         <v>-22364.64186091187</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>365</v>
+      </c>
       <c r="J161" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5881,11 +5779,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5920,7 +5818,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5959,7 +5857,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5994,11 +5892,13 @@
         <v>-67362.66326091187</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>364</v>
+      </c>
       <c r="J165" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6037,7 +5937,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6076,7 +5976,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6115,7 +6015,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6150,11 +6050,13 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>364</v>
+      </c>
       <c r="J169" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6189,13 +6091,11 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6230,13 +6130,11 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6271,13 +6169,11 @@
         <v>-65390.87516091186</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6318,7 +6214,7 @@
         <v>366</v>
       </c>
       <c r="J173" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6353,13 +6249,11 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6394,13 +6288,11 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
         <v>367</v>
-      </c>
-      <c r="J175" t="n">
-        <v>364</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6439,7 +6331,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6478,7 +6370,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6517,7 +6409,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6556,7 +6448,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6595,7 +6487,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6634,7 +6526,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6673,7 +6565,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6712,7 +6604,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6751,7 +6643,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6790,7 +6682,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6829,7 +6721,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6868,7 +6760,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6907,7 +6799,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6946,7 +6838,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6985,7 +6877,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7024,7 +6916,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7063,7 +6955,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7102,7 +6994,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7141,7 +7033,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7180,7 +7072,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7219,7 +7111,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7258,7 +7150,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7297,7 +7189,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7336,7 +7228,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7375,7 +7267,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7414,7 +7306,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7449,19 +7341,19 @@
         <v>-35928.43306091186</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>1.008623978201635</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7491,14 +7383,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>364</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7530,14 +7416,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>364</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7569,14 +7449,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>364</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7608,14 +7482,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>364</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7647,14 +7515,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>364</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7686,14 +7548,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>364</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7725,14 +7581,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>364</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7764,14 +7614,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>364</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7803,14 +7647,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>364</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7842,14 +7680,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>364</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7881,14 +7713,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>364</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7920,14 +7746,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>364</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7959,14 +7779,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>364</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7998,14 +7812,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>364</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8037,14 +7845,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>364</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8076,14 +7878,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>364</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8112,19 +7908,11 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>365</v>
-      </c>
-      <c r="J219" t="n">
-        <v>364</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8153,19 +7941,11 @@
         <v>-32860.3996315001</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>365</v>
-      </c>
-      <c r="J220" t="n">
-        <v>364</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8194,19 +7974,11 @@
         <v>-30004.0300315001</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>364</v>
-      </c>
-      <c r="J221" t="n">
-        <v>364</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8235,19 +8007,11 @@
         <v>-29951.6673315001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>365</v>
-      </c>
-      <c r="J222" t="n">
-        <v>364</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8276,19 +8040,11 @@
         <v>-30443.6673315001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>366</v>
-      </c>
-      <c r="J223" t="n">
-        <v>364</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8317,19 +8073,11 @@
         <v>-30952.8546315001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>365</v>
-      </c>
-      <c r="J224" t="n">
-        <v>364</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8358,19 +8106,11 @@
         <v>-33318.7133315001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>364</v>
-      </c>
-      <c r="J225" t="n">
-        <v>364</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8399,19 +8139,11 @@
         <v>-32823.7133315001</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>363</v>
-      </c>
-      <c r="J226" t="n">
-        <v>364</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8445,12 +8177,10 @@
       <c r="I227" t="n">
         <v>364</v>
       </c>
-      <c r="J227" t="n">
-        <v>364</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -8481,14 +8211,10 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>362</v>
-      </c>
-      <c r="J228" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8522,14 +8248,10 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>363</v>
-      </c>
-      <c r="J229" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,14 +8285,10 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>363</v>
-      </c>
-      <c r="J230" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8604,14 +8322,10 @@
         <v>-33622.9298315001</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>363</v>
-      </c>
-      <c r="J231" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,9 +8362,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>364</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8687,9 +8399,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>364</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8726,9 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>364</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8765,9 +8473,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>364</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8804,9 +8510,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>364</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8843,9 +8547,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>364</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,9 +8584,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>364</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,9 +8621,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>364</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,9 +8658,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>364</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8999,9 +8695,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>364</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,9 +8732,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>364</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9077,9 +8769,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>364</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,9 +8806,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>364</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,9 +8843,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>364</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,9 +8880,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>364</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,9 +8917,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>364</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9272,9 +8954,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>364</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,9 +8991,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>364</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,9 +9028,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>364</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,9 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>364</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9428,9 +9102,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>364</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9467,9 +9139,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>364</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9506,9 +9176,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>364</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,9 +9213,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>364</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9584,9 +9250,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>364</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9623,9 +9287,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>364</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9662,9 +9324,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>364</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9701,9 +9361,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>364</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9740,9 +9398,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>364</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,9 +9435,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>364</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9818,9 +9472,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>364</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,9 +9509,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>364</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9896,9 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>364</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,9 +9583,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>364</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,9 +9620,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>364</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10013,9 +9657,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>364</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10052,9 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>364</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10091,9 +9731,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>364</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10130,9 +9768,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>364</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10169,9 +9805,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>364</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10208,9 +9842,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>364</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10247,9 +9879,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>364</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10286,9 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>364</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10325,9 +9953,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>364</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10364,9 +9990,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>364</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10403,9 +10027,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>364</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10442,9 +10064,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>364</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10481,9 +10101,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>364</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10520,9 +10138,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>364</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10559,9 +10175,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>364</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10598,9 +10212,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>364</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10637,9 +10249,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>364</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10676,9 +10286,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>364</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10715,9 +10323,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>364</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,9 +10360,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>364</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10793,9 +10397,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>364</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10832,9 +10434,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>364</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10871,9 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>364</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10910,9 +10508,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>364</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10949,9 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>364</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10988,9 +10582,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>364</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11027,9 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>364</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11066,9 +10656,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>364</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11105,9 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>364</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11144,9 +10730,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>364</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11183,9 +10767,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>364</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11222,9 +10804,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>364</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,9 +10841,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>364</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11300,9 +10878,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>364</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11339,9 +10915,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>364</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11378,9 +10952,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>364</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11417,9 +10989,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>364</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11456,9 +11026,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>364</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11495,9 +11063,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>364</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11534,9 +11100,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>364</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11573,9 +11137,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>364</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11612,9 +11174,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>364</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11651,9 +11211,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>364</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11690,9 +11248,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>364</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11729,9 +11285,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>364</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11768,9 +11322,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>364</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11807,9 +11359,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>364</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11846,9 +11396,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>364</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11885,9 +11433,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>364</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11924,9 +11470,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>364</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11963,9 +11507,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>364</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12002,9 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>364</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12041,9 +11581,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>364</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12080,9 +11618,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>364</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,9 +11655,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>364</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12158,9 +11692,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>364</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12197,9 +11729,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>364</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12236,9 +11766,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>364</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12275,9 +11803,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>364</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,9 +11840,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>364</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,9 +11877,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>364</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,9 +11914,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>364</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12431,9 +11951,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>364</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,9 +11988,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>364</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12509,9 +12025,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>364</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,9 +12062,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>364</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12584,19 +12096,17 @@
         <v>11470.20842845184</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>364</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1.04445054945055</v>
+        <v>1</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
@@ -12623,11 +12133,15 @@
         <v>11470.20842845184</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12170,15 @@
         <v>11448.55842845184</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12689,11 +12207,15 @@
         <v>11448.55842845184</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +12244,15 @@
         <v>11448.55842845184</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12755,11 +12281,15 @@
         <v>11448.55842845184</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12788,11 +12318,15 @@
         <v>8032.724028451838</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12821,11 +12355,15 @@
         <v>8032.724028451838</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12854,11 +12392,15 @@
         <v>158.9795284518377</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12887,11 +12429,15 @@
         <v>-3034.488971548162</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +12466,15 @@
         <v>-3034.488971548162</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12953,11 +12503,15 @@
         <v>-2902.814571548162</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12986,11 +12540,15 @@
         <v>-2902.814571548162</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13019,11 +12577,15 @@
         <v>-2902.814571548162</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13052,11 +12614,15 @@
         <v>-2902.814571548162</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13085,11 +12651,15 @@
         <v>3936.986328451838</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +12688,15 @@
         <v>4523.180028451838</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13151,11 +12725,15 @@
         <v>1888.133928451838</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13184,11 +12762,15 @@
         <v>3111.059928451838</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13217,11 +12799,15 @@
         <v>3104.218328451837</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13250,11 +12836,15 @@
         <v>3112.092328451837</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13283,11 +12873,15 @@
         <v>3112.092328451837</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13316,11 +12910,15 @@
         <v>3112.092328451837</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13349,11 +12947,15 @@
         <v>3112.092328451837</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13382,11 +12984,15 @@
         <v>3112.092328451837</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13415,11 +13021,15 @@
         <v>3887.259128451837</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13448,11 +13058,15 @@
         <v>3796.001728451837</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13481,11 +13095,15 @@
         <v>15483.01620234218</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13514,11 +13132,15 @@
         <v>14851.66140234218</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13547,11 +13169,15 @@
         <v>14851.66140234218</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +13206,15 @@
         <v>14851.66140234218</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13617,7 +13247,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13650,7 +13284,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13679,11 +13317,15 @@
         <v>12372.04790234218</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13712,11 +13354,15 @@
         <v>12372.04790234218</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13745,11 +13391,15 @@
         <v>13061.27360234218</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13778,11 +13428,15 @@
         <v>24620.35990234218</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13811,11 +13465,15 @@
         <v>24620.35990234218</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13844,11 +13502,15 @@
         <v>24620.35990234218</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13877,11 +13539,15 @@
         <v>24620.35990234218</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13910,11 +13576,15 @@
         <v>24625.08620234218</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13613,15 @@
         <v>24625.08620234218</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13976,11 +13650,15 @@
         <v>24625.08620234218</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14009,11 +13687,15 @@
         <v>23528.08620234218</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14042,11 +13724,15 @@
         <v>23528.08620234218</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14079,7 +13765,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14108,11 +13798,15 @@
         <v>18854.10320234218</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14141,11 +13835,15 @@
         <v>18854.10320234218</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14174,11 +13872,15 @@
         <v>18854.10320234218</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14211,7 +13913,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14244,7 +13950,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14277,7 +13987,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14310,7 +14024,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14343,7 +14061,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14372,11 +14094,15 @@
         <v>24963.90090234217</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14405,11 +14131,15 @@
         <v>24963.90090234217</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14438,11 +14168,15 @@
         <v>26935.97230234218</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14475,7 +14209,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14508,7 +14246,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14541,7 +14283,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14570,11 +14316,15 @@
         <v>36387.42960234218</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14603,11 +14353,15 @@
         <v>36416.77030234218</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +14390,15 @@
         <v>36416.77030234218</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14669,11 +14427,15 @@
         <v>34800.83020234218</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14702,11 +14464,15 @@
         <v>32852.70110234218</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14735,11 +14501,15 @@
         <v>34870.70110234218</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +14538,15 @@
         <v>35050.80750234218</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14801,11 +14575,15 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14834,11 +14612,15 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +14649,15 @@
         <v>27218.38108984218</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14900,11 +14686,15 @@
         <v>30856.99387734217</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14933,11 +14723,15 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14966,11 +14760,15 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14999,11 +14797,15 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15032,11 +14834,15 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15065,11 +14871,15 @@
         <v>45321.17777734218</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15098,11 +14908,15 @@
         <v>43025.71057734218</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15131,11 +14945,15 @@
         <v>32694.71057734218</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +14982,15 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15197,11 +15019,15 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15230,11 +15056,15 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15263,11 +15093,15 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15296,11 +15130,15 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15329,11 +15167,15 @@
         <v>35022.09807734218</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15362,11 +15204,15 @@
         <v>35652.84067734217</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15395,11 +15241,15 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15428,11 +15278,15 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +15315,15 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15494,11 +15352,15 @@
         <v>32683.90027734217</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15527,11 +15389,15 @@
         <v>29563.47437734217</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15564,7 +15430,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15597,7 +15467,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15630,7 +15504,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15663,7 +15541,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15696,7 +15578,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15729,7 +15615,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15758,11 +15648,15 @@
         <v>31068.11097734217</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15795,7 +15689,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15828,7 +15726,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15857,11 +15759,15 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15890,11 +15796,15 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15923,11 +15833,15 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15956,11 +15870,15 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15989,11 +15907,15 @@
         <v>-10417.75172265783</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16022,11 +15944,15 @@
         <v>-10417.75172265783</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16055,11 +15981,15 @@
         <v>-11759.30152265783</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16088,11 +16018,15 @@
         <v>-11759.30152265783</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16121,11 +16055,15 @@
         <v>-11759.30152265783</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16154,11 +16092,15 @@
         <v>-14205.97162265783</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16187,11 +16129,15 @@
         <v>-14205.97162265783</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16220,11 +16166,15 @@
         <v>-13730.13312265783</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16253,11 +16203,15 @@
         <v>-14339.80052265783</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16286,11 +16240,15 @@
         <v>-14307.65512265783</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16319,11 +16277,15 @@
         <v>-14307.65512265783</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16352,11 +16314,15 @@
         <v>-14332.46272265783</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +16351,15 @@
         <v>-14218.90692265783</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16418,11 +16388,15 @@
         <v>-14485.85142265783</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16451,11 +16425,15 @@
         <v>-13036.70902265783</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16484,11 +16462,15 @@
         <v>-13847.91672265783</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16517,11 +16499,15 @@
         <v>-13736.27302265783</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16550,11 +16536,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16583,11 +16573,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16616,11 +16610,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16649,11 +16647,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16682,11 +16684,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16715,11 +16721,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16748,11 +16758,15 @@
         <v>-16882.91872265783</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16781,11 +16795,15 @@
         <v>-17005.53682265782</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16818,7 +16836,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16847,11 +16869,15 @@
         <v>-16720.10565382666</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16880,11 +16906,15 @@
         <v>-16720.10565382666</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16913,11 +16943,15 @@
         <v>-16720.10565382666</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16946,11 +16980,15 @@
         <v>-16720.10565382666</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16979,11 +17017,15 @@
         <v>-16720.10565382666</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17012,11 +17054,15 @@
         <v>-16720.10565382666</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17045,11 +17091,15 @@
         <v>-16640.56425382666</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17078,11 +17128,15 @@
         <v>-16640.56425382666</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17111,11 +17165,15 @@
         <v>-16736.98495382666</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17144,11 +17202,15 @@
         <v>-16736.98495382666</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17177,11 +17239,15 @@
         <v>-16832.20635382666</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17210,11 +17276,15 @@
         <v>-16395.72355201318</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17243,11 +17313,15 @@
         <v>-17732.82255201318</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17276,11 +17350,15 @@
         <v>-20116.91455201318</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17309,11 +17387,15 @@
         <v>-20116.91455201318</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17342,11 +17424,15 @@
         <v>-17965.56209587741</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17375,11 +17461,15 @@
         <v>-17965.56209587741</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17408,11 +17498,15 @@
         <v>-17978.52959587741</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17441,11 +17535,15 @@
         <v>-17978.52959587741</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17474,11 +17572,15 @@
         <v>-17978.52959587741</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17507,11 +17609,15 @@
         <v>-27079.67629587741</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17540,11 +17646,15 @@
         <v>-26900.02019587741</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17573,11 +17683,15 @@
         <v>-26009.02019587741</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17606,11 +17720,15 @@
         <v>-16637.82809587741</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17639,11 +17757,15 @@
         <v>-16545.24859587741</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17672,11 +17794,15 @@
         <v>-15779.81631659652</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17705,11 +17831,15 @@
         <v>-15779.81631659652</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17738,11 +17868,15 @@
         <v>-15288.09405201318</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17771,11 +17905,15 @@
         <v>-15288.09405201318</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17804,11 +17942,15 @@
         <v>-24635.85815201318</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17837,11 +17979,15 @@
         <v>-23095.14505201318</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17870,11 +18016,15 @@
         <v>-23158.77085201319</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17903,11 +18053,15 @@
         <v>-23524.28365201319</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17936,11 +18090,15 @@
         <v>-23524.28365201319</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17969,11 +18127,15 @@
         <v>-39241.84695201318</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18002,11 +18164,15 @@
         <v>-39173.31515201319</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18035,11 +18201,15 @@
         <v>-38914.40645201319</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18072,7 +18242,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18105,7 +18279,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18138,7 +18316,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18171,7 +18353,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18204,7 +18390,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18237,7 +18427,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18266,11 +18460,15 @@
         <v>3278.751447986811</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18299,11 +18497,15 @@
         <v>3278.751447986811</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18332,11 +18534,15 @@
         <v>-1588.718352013189</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18365,11 +18571,15 @@
         <v>-1588.718352013189</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18398,11 +18608,15 @@
         <v>-1588.718352013189</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18431,11 +18645,15 @@
         <v>-1588.718352013189</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18464,11 +18682,15 @@
         <v>-1588.718352013189</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18501,7 +18723,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18530,11 +18756,15 @@
         <v>-7703.12185201319</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18563,11 +18793,15 @@
         <v>-7703.12185201319</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18600,7 +18834,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18633,7 +18871,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18662,11 +18904,15 @@
         <v>-7707.893552013189</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18699,7 +18945,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18732,7 +18982,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18765,7 +19019,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +19056,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18831,7 +19093,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18860,11 +19126,15 @@
         <v>-8945.176952013187</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18893,11 +19163,15 @@
         <v>-8945.176952013187</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18926,11 +19200,15 @@
         <v>-5212.172352013187</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18959,11 +19237,15 @@
         <v>-5845.682352013187</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18992,11 +19274,15 @@
         <v>-5834.487052013187</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19029,7 +19315,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19058,11 +19348,15 @@
         <v>-18087.44735201319</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19091,11 +19385,15 @@
         <v>-18110.84585201319</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19124,11 +19422,15 @@
         <v>-34080.43925201319</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19157,11 +19459,15 @@
         <v>-34051.44335201319</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19190,11 +19496,15 @@
         <v>-34051.44335201319</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19223,11 +19533,15 @@
         <v>-36676.44335201319</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19256,11 +19570,15 @@
         <v>-35916.22845201319</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19289,11 +19607,15 @@
         <v>-35721.85555201318</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19322,11 +19644,15 @@
         <v>-35721.85555201318</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19355,11 +19681,15 @@
         <v>-35721.85555201318</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19388,11 +19718,15 @@
         <v>-37290.20685201319</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19421,11 +19755,15 @@
         <v>-41181.60195201319</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19454,11 +19792,15 @@
         <v>-40728.46755201319</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19487,11 +19829,15 @@
         <v>-40728.46755201319</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19520,11 +19866,15 @@
         <v>-40728.46755201319</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19557,7 +19907,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19586,11 +19940,15 @@
         <v>-40749.29895201318</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19623,7 +19981,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19656,7 +20018,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19689,7 +20055,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19722,7 +20092,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19755,7 +20129,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19788,7 +20166,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19821,7 +20203,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19854,7 +20240,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19887,7 +20277,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19920,7 +20314,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19953,7 +20351,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19986,7 +20388,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20019,7 +20425,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20052,7 +20462,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20085,7 +20499,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20118,7 +20536,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20151,7 +20573,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20184,7 +20610,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20217,7 +20647,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20250,7 +20684,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20283,7 +20721,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20316,7 +20758,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20349,7 +20795,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20382,7 +20832,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20415,7 +20869,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20448,7 +20906,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20481,7 +20943,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20514,7 +20980,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20547,7 +21017,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20580,7 +21054,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20613,7 +21091,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20646,7 +21128,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20679,7 +21165,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20712,7 +21202,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20745,7 +21239,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20778,7 +21276,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20811,7 +21313,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20844,7 +21350,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20877,7 +21387,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20910,7 +21424,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20943,7 +21461,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20976,13 +21498,17 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
       <c r="M587" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-17 BackTest ZRX.xlsx
@@ -1474,10 +1474,14 @@
         <v>-43342.15270565582</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>369</v>
+      </c>
+      <c r="J33" t="n">
+        <v>369</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1510,8 +1514,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>369</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1550,19 @@
         <v>-43961.66730565582</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>370</v>
+      </c>
+      <c r="J35" t="n">
+        <v>369</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1591,19 @@
         <v>-44392.38070565582</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>369</v>
+      </c>
+      <c r="J36" t="n">
+        <v>369</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1632,19 @@
         <v>-17534.28850565582</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>367</v>
+      </c>
+      <c r="J37" t="n">
+        <v>369</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1673,19 @@
         <v>-11233.34760565582</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>369</v>
+      </c>
+      <c r="J38" t="n">
+        <v>369</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1714,19 @@
         <v>-538.9717056558238</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>370</v>
+      </c>
+      <c r="J39" t="n">
+        <v>369</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1758,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>369</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1797,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>369</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1833,17 @@
         <v>1493.912694344176</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>369</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1872,17 @@
         <v>17113.44909434418</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>369</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1914,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>369</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1953,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>369</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1992,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>369</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2028,17 @@
         <v>15282.11829434418</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>369</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2067,17 @@
         <v>-1438.62730565582</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>369</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2106,17 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>369</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2145,17 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>369</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2184,17 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>369</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2223,17 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>369</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2262,17 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>369</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2301,17 @@
         <v>-55824.35630565582</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>369</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2340,17 @@
         <v>-52774.35650565582</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>369</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2379,17 @@
         <v>-47354.06020565582</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>369</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2418,19 @@
         <v>-50140.37310565582</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>366</v>
+      </c>
+      <c r="J57" t="n">
+        <v>369</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2459,17 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>369</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2498,19 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>363</v>
+      </c>
+      <c r="J59" t="n">
+        <v>369</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2539,19 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>363</v>
+      </c>
+      <c r="J60" t="n">
+        <v>369</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2580,19 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>363</v>
+      </c>
+      <c r="J61" t="n">
+        <v>369</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2621,19 @@
         <v>-46019.09480565582</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>363</v>
+      </c>
+      <c r="J62" t="n">
+        <v>369</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2662,17 @@
         <v>-31503.69480565582</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>369</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2701,17 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>369</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2740,17 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>369</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2779,17 @@
         <v>-31924.42810565582</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>369</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2818,17 @@
         <v>-35021.82640565582</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>369</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2857,17 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>369</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2896,17 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>369</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2935,17 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>369</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2974,17 @@
         <v>-34438.99910565581</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>369</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3013,17 @@
         <v>-34558.92920565581</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>369</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3052,17 @@
         <v>-34029.92920565581</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>369</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3094,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>369</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3133,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>369</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3172,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>369</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3211,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>369</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3250,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>369</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3289,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>369</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3328,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>369</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3367,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>369</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3406,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>369</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3445,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>369</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3484,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>369</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3523,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>369</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3562,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>369</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3601,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>369</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3640,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>369</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3679,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>369</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3718,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>369</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3757,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>369</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3796,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>369</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3835,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>369</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3874,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>369</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3913,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>369</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>369</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3991,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>369</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4030,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>369</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4069,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>369</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4108,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>369</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4147,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>369</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4186,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>369</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4225,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>369</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>369</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>369</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>369</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>369</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>369</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>369</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>369</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4537,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>369</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>369</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>369</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>369</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>369</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>369</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>369</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>369</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>369</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>369</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>369</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>369</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>369</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>369</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>369</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>369</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>369</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>369</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>369</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>369</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>369</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>369</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>369</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>369</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>369</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5512,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>369</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>369</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5587,19 @@
         <v>-50338.49216091187</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>369</v>
+      </c>
+      <c r="J138" t="n">
+        <v>369</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5628,19 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>368</v>
+      </c>
+      <c r="J139" t="n">
+        <v>369</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5669,19 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>367</v>
+      </c>
+      <c r="J140" t="n">
+        <v>369</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5710,19 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>367</v>
+      </c>
+      <c r="J141" t="n">
+        <v>369</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5751,19 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>367</v>
+      </c>
+      <c r="J142" t="n">
+        <v>369</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5792,19 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>367</v>
+      </c>
+      <c r="J143" t="n">
+        <v>369</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5833,19 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>367</v>
+      </c>
+      <c r="J144" t="n">
+        <v>369</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5874,19 @@
         <v>-52326.79376091187</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>367</v>
+      </c>
+      <c r="J145" t="n">
+        <v>369</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5915,19 @@
         <v>-52326.79376091187</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>364</v>
+      </c>
+      <c r="J146" t="n">
+        <v>369</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5956,19 @@
         <v>-57578.01756091187</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>364</v>
+      </c>
+      <c r="J147" t="n">
+        <v>369</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5997,19 @@
         <v>-56455.30006091187</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>361</v>
+      </c>
+      <c r="J148" t="n">
+        <v>369</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +6038,19 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>365</v>
+      </c>
+      <c r="J149" t="n">
+        <v>369</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +6079,19 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>363</v>
+      </c>
+      <c r="J150" t="n">
+        <v>369</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +6120,19 @@
         <v>-58201.95696091187</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>363</v>
+      </c>
+      <c r="J151" t="n">
+        <v>369</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +6161,19 @@
         <v>-57768.22216091187</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>362</v>
+      </c>
+      <c r="J152" t="n">
+        <v>369</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5440,9 +6208,13 @@
         <v>363</v>
       </c>
       <c r="J153" t="n">
-        <v>363</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,15 +6243,17 @@
         <v>-8521.320560911874</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>363</v>
+      </c>
       <c r="J154" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5510,15 +6284,17 @@
         <v>-8647.320560911874</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>366</v>
+      </c>
       <c r="J155" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5549,11 +6325,19 @@
         <v>-23822.97346091188</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>365</v>
+      </c>
+      <c r="J156" t="n">
+        <v>369</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5588,9 +6372,13 @@
         <v>363</v>
       </c>
       <c r="J157" t="n">
-        <v>363</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +6411,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5662,11 +6450,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5697,15 +6485,17 @@
         <v>-22364.64186091187</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>367</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +6530,11 @@
         <v>365</v>
       </c>
       <c r="J161" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5779,11 +6569,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5818,7 +6608,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5857,7 +6647,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5892,13 +6682,11 @@
         <v>-67362.66326091187</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5937,7 +6725,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5976,7 +6764,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6015,7 +6803,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6056,7 +6844,7 @@
         <v>364</v>
       </c>
       <c r="J169" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6091,11 +6879,13 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>365</v>
+      </c>
       <c r="J170" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6130,11 +6920,13 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>365</v>
+      </c>
       <c r="J171" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6169,11 +6961,13 @@
         <v>-65390.87516091186</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>365</v>
+      </c>
       <c r="J172" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6214,7 +7008,7 @@
         <v>366</v>
       </c>
       <c r="J173" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6249,11 +7043,13 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>366</v>
+      </c>
       <c r="J174" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6288,11 +7084,13 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>367</v>
+      </c>
       <c r="J175" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6327,11 +7125,13 @@
         <v>-64979.34556091185</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>367</v>
+      </c>
       <c r="J176" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6366,11 +7166,13 @@
         <v>-64866.12496091185</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>366</v>
+      </c>
       <c r="J177" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6405,11 +7207,13 @@
         <v>-64923.51376091185</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>368</v>
+      </c>
       <c r="J178" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6444,11 +7248,13 @@
         <v>-70362.04356091186</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>367</v>
+      </c>
       <c r="J179" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6487,7 +7293,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6522,11 +7328,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>365</v>
+      </c>
       <c r="J181" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6561,11 +7369,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>366</v>
+      </c>
       <c r="J182" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6600,11 +7410,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>366</v>
+      </c>
       <c r="J183" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6639,11 +7451,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>366</v>
+      </c>
       <c r="J184" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6678,11 +7492,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>366</v>
+      </c>
       <c r="J185" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6717,11 +7533,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>366</v>
+      </c>
       <c r="J186" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6756,11 +7574,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>366</v>
+      </c>
       <c r="J187" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6795,11 +7615,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>366</v>
+      </c>
       <c r="J188" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6834,11 +7656,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>366</v>
+      </c>
       <c r="J189" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6873,11 +7697,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>366</v>
+      </c>
       <c r="J190" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6912,11 +7738,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>366</v>
+      </c>
       <c r="J191" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6951,11 +7779,13 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>366</v>
+      </c>
       <c r="J192" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6990,11 +7820,13 @@
         <v>-53500.25946091186</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>366</v>
+      </c>
       <c r="J193" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7029,11 +7861,13 @@
         <v>-51767.36956091186</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>367</v>
+      </c>
       <c r="J194" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7068,11 +7902,13 @@
         <v>-52204.23076091186</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>368</v>
+      </c>
       <c r="J195" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7107,11 +7943,13 @@
         <v>-52204.23076091186</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>367</v>
+      </c>
       <c r="J196" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7146,11 +7984,13 @@
         <v>-51969.12416091186</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>367</v>
+      </c>
       <c r="J197" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7185,11 +8025,13 @@
         <v>-46769.55676091186</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>369</v>
+      </c>
       <c r="J198" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7224,11 +8066,13 @@
         <v>-46769.55676091186</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>370</v>
+      </c>
       <c r="J199" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7263,11 +8107,13 @@
         <v>-44074.13906091186</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>370</v>
+      </c>
       <c r="J200" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7302,11 +8148,13 @@
         <v>-44074.13906091186</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>371</v>
+      </c>
       <c r="J201" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7341,19 +8189,21 @@
         <v>-35928.43306091186</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>371</v>
+      </c>
       <c r="J202" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.008623978201635</v>
+        <v>1</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7383,8 +8233,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>369</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7416,8 +8272,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>369</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7449,8 +8311,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>369</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7482,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>369</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7515,8 +8389,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>369</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7548,8 +8428,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>369</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7578,11 +8464,19 @@
         <v>-30366.0896315001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>373</v>
+      </c>
+      <c r="J209" t="n">
+        <v>369</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +8505,19 @@
         <v>-30929.7607315001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>374</v>
+      </c>
+      <c r="J210" t="n">
+        <v>369</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +8546,19 @@
         <v>-27098.8919315001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>373</v>
+      </c>
+      <c r="J211" t="n">
+        <v>369</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +8587,19 @@
         <v>-24621.0253315001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>374</v>
+      </c>
+      <c r="J212" t="n">
+        <v>369</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +8628,19 @@
         <v>-25262.3116315001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>375</v>
+      </c>
+      <c r="J213" t="n">
+        <v>369</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7746,8 +8672,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>369</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +8708,19 @@
         <v>-25262.3116315001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>374</v>
+      </c>
+      <c r="J215" t="n">
+        <v>369</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7809,11 +8749,19 @@
         <v>-25341.79553150009</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>374</v>
+      </c>
+      <c r="J216" t="n">
+        <v>369</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7842,11 +8790,19 @@
         <v>-25936.1706315001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>373</v>
+      </c>
+      <c r="J217" t="n">
+        <v>369</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +8831,19 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>369</v>
+      </c>
+      <c r="J218" t="n">
+        <v>369</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7908,11 +8872,19 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>365</v>
+      </c>
+      <c r="J219" t="n">
+        <v>369</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +8913,19 @@
         <v>-32860.3996315001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>365</v>
+      </c>
+      <c r="J220" t="n">
+        <v>369</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +8954,19 @@
         <v>-30004.0300315001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>364</v>
+      </c>
+      <c r="J221" t="n">
+        <v>369</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +8995,19 @@
         <v>-29951.6673315001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>365</v>
+      </c>
+      <c r="J222" t="n">
+        <v>369</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +9036,19 @@
         <v>-30443.6673315001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>366</v>
+      </c>
+      <c r="J223" t="n">
+        <v>369</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8073,11 +9077,19 @@
         <v>-30952.8546315001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>365</v>
+      </c>
+      <c r="J224" t="n">
+        <v>369</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8106,11 +9118,19 @@
         <v>-33318.7133315001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>364</v>
+      </c>
+      <c r="J225" t="n">
+        <v>369</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8139,11 +9159,19 @@
         <v>-32823.7133315001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>363</v>
+      </c>
+      <c r="J226" t="n">
+        <v>369</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8177,10 +9205,12 @@
       <c r="I227" t="n">
         <v>364</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>369</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -8211,10 +9241,14 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>362</v>
+      </c>
+      <c r="J228" t="n">
+        <v>369</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,10 +9282,14 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>363</v>
+      </c>
+      <c r="J229" t="n">
+        <v>369</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8285,10 +9323,14 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>363</v>
+      </c>
+      <c r="J230" t="n">
+        <v>369</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8322,10 +9364,14 @@
         <v>-33622.9298315001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>363</v>
+      </c>
+      <c r="J231" t="n">
+        <v>369</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8359,10 +9405,14 @@
         <v>-33510.5515315001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>368</v>
+      </c>
+      <c r="J232" t="n">
+        <v>369</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8396,10 +9446,14 @@
         <v>-34102.40883150011</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>372</v>
+      </c>
+      <c r="J233" t="n">
+        <v>369</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8433,10 +9487,14 @@
         <v>-34076.83093150011</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>370</v>
+      </c>
+      <c r="J234" t="n">
+        <v>369</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,10 +9528,14 @@
         <v>-30615.55083150011</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>372</v>
+      </c>
+      <c r="J235" t="n">
+        <v>369</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,10 +9569,14 @@
         <v>-30642.09793150011</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>373</v>
+      </c>
+      <c r="J236" t="n">
+        <v>369</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8544,10 +9610,14 @@
         <v>-34175.94373150011</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>371</v>
+      </c>
+      <c r="J237" t="n">
+        <v>369</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8581,10 +9651,14 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>368</v>
+      </c>
+      <c r="J238" t="n">
+        <v>369</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8618,10 +9692,14 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>370</v>
+      </c>
+      <c r="J239" t="n">
+        <v>369</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,7 +9736,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>369</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8692,10 +9772,14 @@
         <v>-26015.51984601624</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>370</v>
+      </c>
+      <c r="J241" t="n">
+        <v>369</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8732,7 +9816,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>369</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8769,7 +9855,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>369</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8803,10 +9891,14 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>369</v>
+      </c>
+      <c r="J244" t="n">
+        <v>369</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8840,10 +9932,14 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>369</v>
+      </c>
+      <c r="J245" t="n">
+        <v>369</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,10 +9973,14 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>369</v>
+      </c>
+      <c r="J246" t="n">
+        <v>369</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8914,10 +10014,14 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>369</v>
+      </c>
+      <c r="J247" t="n">
+        <v>369</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,10 +10055,14 @@
         <v>-25975.21994601624</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>369</v>
+      </c>
+      <c r="J248" t="n">
+        <v>369</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,10 +10096,14 @@
         <v>-25469.04744601624</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>370</v>
+      </c>
+      <c r="J249" t="n">
+        <v>369</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,7 +10140,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>369</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9065,7 +10179,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>369</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9102,7 +10218,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>369</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9139,7 +10257,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>369</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9176,7 +10296,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>369</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9213,7 +10335,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>369</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,7 +10374,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>369</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9287,7 +10413,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>369</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9324,7 +10452,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>369</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9361,7 +10491,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>369</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9398,7 +10530,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>369</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9435,7 +10569,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>369</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9472,7 +10608,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>369</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9509,7 +10647,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>369</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,7 +10686,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>369</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9583,7 +10725,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>369</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,7 +10764,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>369</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9657,7 +10803,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>369</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,7 +10842,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>369</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9731,7 +10881,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>369</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,7 +10920,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>369</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9805,7 +10959,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>369</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9842,7 +10998,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>369</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9879,7 +11037,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>369</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,7 +11076,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>369</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9953,7 +11115,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>369</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,7 +11154,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>369</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,7 +11193,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>369</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,7 +11232,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>369</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10101,7 +11271,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>369</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10138,7 +11310,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>369</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10175,7 +11349,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>369</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10212,7 +11388,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>369</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10249,7 +11427,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>369</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10286,7 +11466,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>369</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10323,7 +11505,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>369</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10360,7 +11544,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>369</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10397,7 +11583,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>369</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10434,7 +11622,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>369</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10471,7 +11661,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>369</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10508,7 +11700,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>369</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,7 +11739,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>369</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10582,7 +11778,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>369</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10619,7 +11817,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>369</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10656,7 +11856,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>369</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,7 +11895,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>369</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,7 +11934,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>369</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10767,7 +11973,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>369</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10804,7 +12012,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>369</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10841,7 +12051,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>369</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10878,7 +12090,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>369</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10915,7 +12129,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>369</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10952,7 +12168,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>369</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10989,7 +12207,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>369</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,7 +12246,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>369</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11063,7 +12285,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>369</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11100,7 +12324,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>369</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11137,7 +12363,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>369</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11174,7 +12402,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>369</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,7 +12441,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>369</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11248,7 +12480,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>369</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11285,7 +12519,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>369</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,7 +12558,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>369</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11359,7 +12597,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>369</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11396,7 +12636,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>369</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11433,7 +12675,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>369</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,7 +12714,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>369</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,7 +12753,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>369</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11544,7 +12792,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>369</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11581,7 +12831,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>369</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,7 +12870,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>369</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,7 +12909,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>369</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,7 +12948,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>369</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11729,7 +12987,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>369</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11766,7 +13026,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>369</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,7 +13065,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>369</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11840,7 +13104,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>369</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11877,7 +13143,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>369</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11914,7 +13182,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>369</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,7 +13221,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>369</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11988,7 +13260,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>369</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12025,7 +13299,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>369</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12062,7 +13338,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>369</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,17 +13374,19 @@
         <v>11470.20842845184</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>369</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1</v>
+        <v>1.030230352303523</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
@@ -12137,11 +13417,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12174,11 +13450,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +13483,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12248,11 +13516,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +13549,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +13582,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +13615,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +13648,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +13681,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12470,11 +13714,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12507,11 +13747,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12544,11 +13780,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +13813,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +13846,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +13879,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +13912,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12729,11 +13945,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12766,11 +13978,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +14011,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12840,11 +14044,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +14077,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12914,11 +14110,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12951,11 +14143,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12988,11 +14176,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13025,11 +14209,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13062,11 +14242,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13099,11 +14275,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13136,11 +14308,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13173,11 +14341,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13210,11 +14374,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13247,11 +14407,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13284,11 +14440,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +14473,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +14506,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +14539,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13432,11 +14572,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13469,11 +14605,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +14638,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +14671,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +14704,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13617,11 +14737,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13654,11 +14770,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13691,11 +14803,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13728,11 +14836,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13765,11 +14869,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13802,11 +14902,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13839,11 +14935,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13876,11 +14968,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13913,11 +15001,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13950,11 +15034,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13987,11 +15067,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14024,11 +15100,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14061,11 +15133,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14098,11 +15166,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14135,11 +15199,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14172,11 +15232,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14209,11 +15265,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14246,11 +15298,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14279,15 +15327,11 @@
         <v>36537.42960234218</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14316,15 +15360,11 @@
         <v>36387.42960234218</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14353,15 +15393,11 @@
         <v>36416.77030234218</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14390,15 +15426,11 @@
         <v>36416.77030234218</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14427,15 +15459,11 @@
         <v>34800.83020234218</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14464,15 +15492,11 @@
         <v>32852.70110234218</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14501,15 +15525,11 @@
         <v>34870.70110234218</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14538,15 +15558,11 @@
         <v>35050.80750234218</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14575,15 +15591,11 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14612,15 +15624,11 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14649,15 +15657,11 @@
         <v>27218.38108984218</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14686,15 +15690,11 @@
         <v>30856.99387734217</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14727,11 +15727,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14760,15 +15756,11 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14797,15 +15789,11 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14834,15 +15822,11 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14871,15 +15855,11 @@
         <v>45321.17777734218</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14908,15 +15888,11 @@
         <v>43025.71057734218</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14945,15 +15921,11 @@
         <v>32694.71057734218</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14982,15 +15954,11 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15019,15 +15987,11 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15056,15 +16020,11 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15093,15 +16053,11 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15130,15 +16086,11 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15167,15 +16119,11 @@
         <v>35022.09807734218</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15204,15 +16152,11 @@
         <v>35652.84067734217</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15241,15 +16185,11 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15278,15 +16218,11 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15315,15 +16251,11 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15352,15 +16284,11 @@
         <v>32683.90027734217</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15389,15 +16317,11 @@
         <v>29563.47437734217</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15426,15 +16350,11 @@
         <v>30105.77327734217</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15463,15 +16383,11 @@
         <v>30105.77327734217</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15500,15 +16416,11 @@
         <v>28672.80347734218</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15537,15 +16449,11 @@
         <v>28491.65787734218</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15574,15 +16482,11 @@
         <v>28491.65787734218</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15611,15 +16515,11 @@
         <v>28791.65787734218</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15648,15 +16548,11 @@
         <v>31068.11097734217</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15685,15 +16581,11 @@
         <v>13592.55207734217</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15722,15 +16614,11 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15759,15 +16647,11 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15796,15 +16680,11 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15837,11 +16717,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15874,11 +16750,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15911,11 +16783,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15948,11 +16816,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15985,11 +16849,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16022,11 +16882,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16059,11 +16915,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16096,11 +16948,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16133,11 +16981,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16170,11 +17014,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16207,11 +17047,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16244,11 +17080,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +17113,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16318,11 +17146,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16355,11 +17179,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +17212,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +17245,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16466,11 +17278,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16503,11 +17311,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16540,11 +17344,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16577,11 +17377,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16614,11 +17410,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16651,11 +17443,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16688,11 +17476,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16725,11 +17509,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16762,11 +17542,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16799,11 +17575,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16836,11 +17608,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16873,11 +17641,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16910,11 +17674,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16947,11 +17707,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17740,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17021,11 +17773,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17058,11 +17806,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17095,11 +17839,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17132,11 +17872,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17169,11 +17905,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17206,11 +17938,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17243,11 +17971,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17280,11 +18004,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17317,11 +18037,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17354,11 +18070,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17391,11 +18103,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17428,11 +18136,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17465,11 +18169,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17502,11 +18202,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17539,11 +18235,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17576,11 +18268,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17613,11 +18301,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17650,11 +18334,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17687,11 +18367,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17724,11 +18400,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17761,11 +18433,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17798,11 +18466,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17835,11 +18499,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17872,11 +18532,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17909,11 +18565,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17946,11 +18598,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17983,11 +18631,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18020,11 +18664,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18057,11 +18697,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18094,11 +18730,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18131,11 +18763,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18168,11 +18796,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18829,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18242,11 +18862,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18279,11 +18895,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18316,11 +18928,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18353,11 +18961,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18390,11 +18994,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18427,11 +19027,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18464,11 +19060,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18501,11 +19093,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18538,11 +19126,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18575,11 +19159,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18612,11 +19192,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18649,11 +19225,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18686,11 +19258,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18723,11 +19291,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18760,11 +19324,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18797,11 +19357,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18834,11 +19390,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18871,11 +19423,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18908,11 +19456,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18945,11 +19489,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18982,11 +19522,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19019,11 +19555,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19056,11 +19588,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19093,11 +19621,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19130,11 +19654,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19167,11 +19687,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19204,11 +19720,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19241,11 +19753,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19278,11 +19786,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19315,11 +19819,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19352,11 +19852,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19389,11 +19885,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19918,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19463,11 +19951,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19500,11 +19984,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19537,11 +20017,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19574,11 +20050,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19611,11 +20083,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19648,11 +20116,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19685,11 +20149,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19722,11 +20182,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19759,11 +20215,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19796,11 +20248,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19833,11 +20281,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19870,11 +20314,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19907,11 +20347,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19944,11 +20380,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19981,11 +20413,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20018,11 +20446,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20055,11 +20479,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20092,11 +20512,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20129,11 +20545,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20166,11 +20578,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20203,11 +20611,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20240,11 +20644,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20277,11 +20677,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20314,11 +20710,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20351,11 +20743,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20388,11 +20776,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20425,11 +20809,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20462,11 +20842,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20499,11 +20875,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20536,11 +20908,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20573,11 +20941,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20610,11 +20974,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +21007,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20684,11 +21040,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20721,11 +21073,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20758,11 +21106,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20795,11 +21139,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20832,11 +21172,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20869,11 +21205,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20906,11 +21238,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20943,11 +21271,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20980,11 +21304,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21017,11 +21337,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21054,11 +21370,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21091,11 +21403,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21128,11 +21436,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21165,11 +21469,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21202,11 +21502,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21239,11 +21535,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21276,11 +21568,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21313,11 +21601,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21350,11 +21634,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21387,11 +21667,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21424,11 +21700,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21461,11 +21733,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21498,11 +21766,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
